--- a/Data Files/hds_Raject.xlsx
+++ b/Data Files/hds_Raject.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12016ED3-7270-F04F-B715-604F24A1E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFB9A3F-940A-374F-83AA-82F011A24EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12179" uniqueCount="4822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12264" uniqueCount="4856">
   <si>
     <t>ID</t>
   </si>
@@ -15200,12 +15200,356 @@
   <si>
     <t>Acai Berry Induced Cholestatic Jaundice</t>
   </si>
+  <si>
+    <t>Polygoni Multiflori (22195249)</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori </t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22195249/</t>
+  </si>
+  <si>
+    <t>HD0302</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori (24559819)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24559819/</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori (20479902)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20479902/</t>
+  </si>
+  <si>
+    <t>Reactivation of Pulmonary Tuberculosis in a Patient with Polygonum multiflorum Thunb-Induced Hepatitis</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori (23691566)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23691566/</t>
+  </si>
+  <si>
+    <t>Toxic hepatitis induced by Polygonum multiflorum</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori (26379995)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26379995/</t>
+  </si>
+  <si>
+    <t>Acute hepatitis induced by a Chinese herbal product Qibao Meiran Wan: a case study.</t>
+  </si>
+  <si>
+    <t>HD0300</t>
+  </si>
+  <si>
+    <t>Cassiae semen</t>
+  </si>
+  <si>
+    <t>Cassia Seed, Semen Cassiae</t>
+  </si>
+  <si>
+    <t>Jue Ming Zi</t>
+  </si>
+  <si>
+    <t>决明子</t>
+  </si>
+  <si>
+    <t>Senna obtusifolia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Senna_obtusifolia</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/87/Senna_obtusifolia_with_flower_and_pods.jpg/640px-Senna_obtusifolia_with_flower_and_pods.jpg</t>
+  </si>
+  <si>
+    <t>Senna obtusifolia, known by the common names Chinese senna, American sicklepod, sicklepod, etc., is a plant in the genus Senna, sometimes separated in the monotypic genus Diallobus. It grows wild in North, Central, and South America, Asia, Africa, and Oceania, and is considered a particularly serious weed in many places. It has a long-standing history of confusion with Senna tora and that taxon in many sources actually refers to the present species.</t>
+  </si>
+  <si>
+    <t>Traditional Eastern medicine,</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori Caulis</t>
+  </si>
+  <si>
+    <t>Ye Jiao Teng</t>
+  </si>
+  <si>
+    <t>Shou Wu Teng</t>
+  </si>
+  <si>
+    <t>首烏藤,夜交藤</t>
+  </si>
+  <si>
+    <t>Likelihood score: A (well established cause of clinically apparent liver injury)</t>
+  </si>
+  <si>
+    <t>Reynoutria multiflora (syn. Fallopia multiflora and Polygonum multiflorum) is a species of flowering plant in the buckwheat family Polygonaceae native to central and southern China. It is known by the English common names tuber fleeceflower and Chinese (climbing) knotweed. It is known as he shou wu in China and East Asia. Another name for the species is fo-ti, which is a misnomer. The name he shou wu means 'the black-haired Mr. He'.</t>
+  </si>
+  <si>
+    <t>Reynoutria multiflora is listed in the Chinese Pharmacopoeia and is one of the most popular perennial traditional Chinese medicines. Caution must be taken, however, as overconsumption can lead to toxicity-induced hepatitis.</t>
+  </si>
+  <si>
+    <t>Polygoni Multiflori</t>
+  </si>
+  <si>
+    <r>
+      <t>The materia medica name for the seeds in Chinese is jué míng z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (simplified: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>决明子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; traditional: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>決明子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).The medicinal seeds are also known by the equivalent Korean name gyeolmyeongja (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결명자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>決明子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) in traditional Korean medicine, and by the Japanese name ketsumei-shi (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ケツメイシ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>決明子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) in kamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> medicine. The jue ming zi is used widely in Asia, including Southeast Asian countries such as Thailand, and its herbal tea is drunk instead of regular tea as a preventative for hypertension. It is also purported to have the ability to clear the eye. In Korea also, medicinal gyeolmyeongja is usually prepared as tea (gyeolmyeongja-cha. ‘sickle pod tea’). Senna tora (Cassia tora) is used similarly, and though distinguished in the Chinese market as the "little/lesser" variety or shao jue ming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小決明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) the Japanese government's [pharmacopoeia] (Nihon yakkyokuh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) officially acknowledges both S. obtusifolia and S. tora to be commerced as ketsumeishi. The Japanese beverage habu-cha (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ハブ茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), as the name suggests, was originally brewed from the seeds of the habus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or S. occidentalis, but currently marketed habu-cha uses S. obtusifolia as substitute, since it is a higher-yielding crop.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15229,6 +15573,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -15247,15 +15620,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -15568,10 +15945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB300"/>
+  <dimension ref="A1:AB302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M300" sqref="M300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40963,6 +41340,175 @@
         <v>3311</v>
       </c>
     </row>
+    <row r="301" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>4838</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>4838</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>4839</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>4840</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>4841</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>4842</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O301" s="4" t="s">
+        <v>4843</v>
+      </c>
+      <c r="P301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X301" s="2" t="s">
+        <v>4844</v>
+      </c>
+      <c r="Y301" s="2" t="s">
+        <v>4845</v>
+      </c>
+      <c r="Z301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA301" s="2" t="s">
+        <v>4846</v>
+      </c>
+      <c r="AB301" s="2" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>4847</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>4848</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>4849</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>4850</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S302" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T302" s="2" t="s">
+        <v>4851</v>
+      </c>
+      <c r="U302" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X302" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y302" s="2" t="s">
+        <v>4852</v>
+      </c>
+      <c r="Z302" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB302" s="2" t="s">
+        <v>4853</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W300" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
@@ -40970,6 +41516,8 @@
     <hyperlink ref="R266" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="O268" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="R287" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O301" r:id="rId5" xr:uid="{CB8E1394-192C-7645-B87A-BE747B84152E}"/>
+    <hyperlink ref="X302" r:id="rId6" xr:uid="{F45195C2-FEA1-9B4D-9922-C584470B9777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>
@@ -40978,10 +41526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G512"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M506" sqref="M506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52755,6 +53303,121 @@
       </c>
       <c r="G512" t="s">
         <v>3896</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" s="2" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>4824</v>
+      </c>
+      <c r="E513" s="2">
+        <v>22195249</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" s="2" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>4827</v>
+      </c>
+      <c r="E514" s="2">
+        <v>24559819</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" s="2" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>4829</v>
+      </c>
+      <c r="E515" s="2">
+        <v>20479902</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" s="2" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E516" s="2">
+        <v>23691566</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" s="2" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E517" s="2">
+        <v>26379995</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>4836</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/hds_Raject.xlsx
+++ b/Data Files/hds_Raject.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11824" uniqueCount="4824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11826" uniqueCount="4825">
   <si>
     <t>PubMedID</t>
   </si>
@@ -15295,6 +15295,9 @@
 </t>
   </si>
   <si>
+    <t>HD0301</t>
+  </si>
+  <si>
     <t>Minjun</t>
   </si>
 </sst>
@@ -15318,6 +15321,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -15334,12 +15343,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFff0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -15391,15 +15394,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -15408,29 +15411,41 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15767,7 +15782,7 @@
     <col min="23" max="23" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="5" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="28" max="28" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -15848,7 +15863,7 @@
       <c r="Y1" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="11" t="s">
         <v>1662</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -15934,7 +15949,7 @@
       <c r="Y2" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA2" s="2"/>
@@ -16016,7 +16031,7 @@
       <c r="Y3" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA3" s="2"/>
@@ -16098,7 +16113,7 @@
       <c r="Y4" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA4" s="2" t="s">
@@ -16184,7 +16199,7 @@
       <c r="Y5" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA5" s="2"/>
@@ -16266,7 +16281,7 @@
       <c r="Y6" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -16352,7 +16367,7 @@
       <c r="Y7" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA7" s="2"/>
@@ -16434,7 +16449,7 @@
       <c r="Y8" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="11" t="s">
         <v>1757</v>
       </c>
       <c r="AA8" s="2" t="s">
@@ -16520,7 +16535,7 @@
       <c r="Y9" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -16606,7 +16621,7 @@
       <c r="Y10" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA10" s="2" t="s">
@@ -16692,7 +16707,7 @@
       <c r="Y11" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA11" s="2"/>
@@ -16774,7 +16789,7 @@
       <c r="Y12" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA12" s="2" t="s">
@@ -16824,7 +16839,7 @@
       <c r="M13" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="9" t="s">
         <v>1812</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -16860,7 +16875,7 @@
       <c r="Y13" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA13" s="2" t="s">
@@ -16946,7 +16961,7 @@
       <c r="Y14" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA14" s="2"/>
@@ -17028,7 +17043,7 @@
       <c r="Y15" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA15" s="2"/>
@@ -17110,7 +17125,7 @@
       <c r="Y16" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA16" s="2" t="s">
@@ -17196,7 +17211,7 @@
       <c r="Y17" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA17" s="2" t="s">
@@ -17282,7 +17297,7 @@
       <c r="Y18" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="Z18" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA18" s="2"/>
@@ -17364,7 +17379,7 @@
       <c r="Y19" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA19" s="2"/>
@@ -17446,7 +17461,7 @@
       <c r="Y20" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="11" t="s">
         <v>1898</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -17532,7 +17547,7 @@
       <c r="Y21" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Z21" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA21" s="2"/>
@@ -17614,7 +17629,7 @@
       <c r="Y22" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="11" t="s">
         <v>1927</v>
       </c>
       <c r="AA22" s="2" t="s">
@@ -17700,7 +17715,7 @@
       <c r="Y23" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z23" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA23" s="2"/>
@@ -17782,7 +17797,7 @@
       <c r="Y24" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA24" s="2" t="s">
@@ -17868,7 +17883,7 @@
       <c r="Y25" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA25" s="2" t="s">
@@ -17954,7 +17969,7 @@
       <c r="Y26" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA26" s="2"/>
@@ -18036,7 +18051,7 @@
       <c r="Y27" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA27" s="2" t="s">
@@ -18122,7 +18137,7 @@
       <c r="Y28" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA28" s="2"/>
@@ -18204,7 +18219,7 @@
       <c r="Y29" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA29" s="2"/>
@@ -18286,7 +18301,7 @@
       <c r="Y30" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA30" s="2"/>
@@ -18368,7 +18383,7 @@
       <c r="Y31" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA31" s="2"/>
@@ -18450,7 +18465,7 @@
       <c r="Y32" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="Z32" s="11" t="s">
         <v>2026</v>
       </c>
       <c r="AA32" s="2"/>
@@ -18532,7 +18547,7 @@
       <c r="Y33" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="Z33" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA33" s="2"/>
@@ -18614,7 +18629,7 @@
       <c r="Y34" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="Z34" s="2" t="s">
+      <c r="Z34" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA34" s="2" t="s">
@@ -18700,7 +18715,7 @@
       <c r="Y35" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="Z35" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA35" s="2" t="s">
@@ -18786,7 +18801,7 @@
       <c r="Y36" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA36" s="2"/>
@@ -18868,7 +18883,7 @@
       <c r="Y37" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="Z37" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA37" s="2"/>
@@ -18950,7 +18965,7 @@
       <c r="Y38" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA38" s="2"/>
@@ -19032,7 +19047,7 @@
       <c r="Y39" s="2" t="s">
         <v>2105</v>
       </c>
-      <c r="Z39" s="2" t="s">
+      <c r="Z39" s="11" t="s">
         <v>2106</v>
       </c>
       <c r="AA39" s="2"/>
@@ -19114,7 +19129,7 @@
       <c r="Y40" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA40" s="2" t="s">
@@ -19200,7 +19215,7 @@
       <c r="Y41" s="2" t="s">
         <v>2130</v>
       </c>
-      <c r="Z41" s="2" t="s">
+      <c r="Z41" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA41" s="2"/>
@@ -19282,7 +19297,7 @@
       <c r="Y42" s="2" t="s">
         <v>2140</v>
       </c>
-      <c r="Z42" s="2" t="s">
+      <c r="Z42" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA42" s="2"/>
@@ -19364,7 +19379,7 @@
       <c r="Y43" s="2" t="s">
         <v>2150</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA43" s="2"/>
@@ -19446,7 +19461,7 @@
       <c r="Y44" s="2" t="s">
         <v>2160</v>
       </c>
-      <c r="Z44" s="2" t="s">
+      <c r="Z44" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA44" s="2"/>
@@ -19528,7 +19543,7 @@
       <c r="Y45" s="2" t="s">
         <v>2172</v>
       </c>
-      <c r="Z45" s="2" t="s">
+      <c r="Z45" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA45" s="2"/>
@@ -19610,7 +19625,7 @@
       <c r="Y46" s="2" t="s">
         <v>2182</v>
       </c>
-      <c r="Z46" s="2" t="s">
+      <c r="Z46" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA46" s="2"/>
@@ -19692,7 +19707,7 @@
       <c r="Y47" s="2" t="s">
         <v>2189</v>
       </c>
-      <c r="Z47" s="2" t="s">
+      <c r="Z47" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA47" s="2"/>
@@ -19774,7 +19789,7 @@
       <c r="Y48" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="Z48" s="2" t="s">
+      <c r="Z48" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA48" s="2"/>
@@ -19856,7 +19871,7 @@
       <c r="Y49" s="2" t="s">
         <v>2208</v>
       </c>
-      <c r="Z49" s="2" t="s">
+      <c r="Z49" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA49" s="2" t="s">
@@ -19942,7 +19957,7 @@
       <c r="Y50" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="Z50" s="2" t="s">
+      <c r="Z50" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA50" s="2"/>
@@ -20024,7 +20039,7 @@
       <c r="Y51" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="Z51" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA51" s="2" t="s">
@@ -20110,7 +20125,7 @@
       <c r="Y52" s="2" t="s">
         <v>2242</v>
       </c>
-      <c r="Z52" s="2" t="s">
+      <c r="Z52" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA52" s="2" t="s">
@@ -20196,7 +20211,7 @@
       <c r="Y53" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="Z53" s="2" t="s">
+      <c r="Z53" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA53" s="2"/>
@@ -20278,7 +20293,7 @@
       <c r="Y54" s="2" t="s">
         <v>2265</v>
       </c>
-      <c r="Z54" s="2" t="s">
+      <c r="Z54" s="11" t="s">
         <v>2266</v>
       </c>
       <c r="AA54" s="2"/>
@@ -20360,7 +20375,7 @@
       <c r="Y55" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="Z55" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA55" s="2"/>
@@ -20442,7 +20457,7 @@
       <c r="Y56" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="Z56" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA56" s="2" t="s">
@@ -20528,7 +20543,7 @@
       <c r="Y57" s="2" t="s">
         <v>2296</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="Z57" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA57" s="2" t="s">
@@ -20614,7 +20629,7 @@
       <c r="Y58" s="2" t="s">
         <v>2309</v>
       </c>
-      <c r="Z58" s="2" t="s">
+      <c r="Z58" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA58" s="2"/>
@@ -20696,7 +20711,7 @@
       <c r="Y59" s="2" t="s">
         <v>2315</v>
       </c>
-      <c r="Z59" s="2" t="s">
+      <c r="Z59" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA59" s="2" t="s">
@@ -20782,7 +20797,7 @@
       <c r="Y60" s="2" t="s">
         <v>2325</v>
       </c>
-      <c r="Z60" s="2" t="s">
+      <c r="Z60" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA60" s="2"/>
@@ -20864,7 +20879,7 @@
       <c r="Y61" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Z61" s="2" t="s">
+      <c r="Z61" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA61" s="2"/>
@@ -20946,7 +20961,7 @@
       <c r="Y62" s="2" t="s">
         <v>2346</v>
       </c>
-      <c r="Z62" s="2" t="s">
+      <c r="Z62" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA62" s="2" t="s">
@@ -21032,17 +21047,17 @@
       <c r="Y63" s="2" t="s">
         <v>2355</v>
       </c>
-      <c r="Z63" s="2" t="s">
+      <c r="Z63" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="28">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>2356</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>2357</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -21114,7 +21129,7 @@
       <c r="Y64" s="2" t="s">
         <v>2364</v>
       </c>
-      <c r="Z64" s="2" t="s">
+      <c r="Z64" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA64" s="2"/>
@@ -21196,7 +21211,7 @@
       <c r="Y65" s="2" t="s">
         <v>2376</v>
       </c>
-      <c r="Z65" s="2" t="s">
+      <c r="Z65" s="11" t="s">
         <v>2377</v>
       </c>
       <c r="AA65" s="2" t="s">
@@ -21207,86 +21222,86 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="12" t="s">
         <v>2380</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="12" t="s">
         <v>2381</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="12" t="s">
         <v>2381</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="12" t="s">
         <v>1784</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="12" t="s">
         <v>1679</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="12" t="s">
         <v>2382</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="12" t="s">
         <v>2383</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="12" t="s">
         <v>2384</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="12" t="s">
         <v>2385</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="12" t="s">
         <v>1682</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8" t="s">
+      <c r="K66" s="12"/>
+      <c r="L66" s="12" t="s">
         <v>1672</v>
       </c>
-      <c r="M66" s="8" t="s">
+      <c r="M66" s="12" t="s">
         <v>1673</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O66" s="9" t="s">
+      <c r="N66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O66" s="13" t="s">
         <v>2386</v>
       </c>
-      <c r="P66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="R66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="T66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="U66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="V66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W66" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X66" s="8" t="s">
+      <c r="P66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="U66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="V66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X66" s="12" t="s">
         <v>2387</v>
       </c>
-      <c r="Y66" s="8" t="s">
+      <c r="Y66" s="12" t="s">
         <v>2388</v>
       </c>
-      <c r="Z66" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="AA66" s="8" t="s">
+      <c r="Z66" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AA66" s="12" t="s">
         <v>2389</v>
       </c>
-      <c r="AB66" s="8" t="s">
+      <c r="AB66" s="12" t="s">
         <v>2390</v>
       </c>
     </row>
@@ -21366,7 +21381,7 @@
       <c r="Y67" s="2" t="s">
         <v>2402</v>
       </c>
-      <c r="Z67" s="2" t="s">
+      <c r="Z67" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA67" s="2" t="s">
@@ -21452,7 +21467,7 @@
       <c r="Y68" s="2" t="s">
         <v>2419</v>
       </c>
-      <c r="Z68" s="2" t="s">
+      <c r="Z68" s="11" t="s">
         <v>2420</v>
       </c>
       <c r="AA68" s="2" t="s">
@@ -21538,7 +21553,7 @@
       <c r="Y69" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="Z69" s="2" t="s">
+      <c r="Z69" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA69" s="2"/>
@@ -21620,7 +21635,7 @@
       <c r="Y70" s="2" t="s">
         <v>2443</v>
       </c>
-      <c r="Z70" s="2" t="s">
+      <c r="Z70" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA70" s="2" t="s">
@@ -21706,7 +21721,7 @@
       <c r="Y71" s="2" t="s">
         <v>2458</v>
       </c>
-      <c r="Z71" s="2" t="s">
+      <c r="Z71" s="11" t="s">
         <v>2459</v>
       </c>
       <c r="AA71" s="2"/>
@@ -21788,7 +21803,7 @@
       <c r="Y72" s="2" t="s">
         <v>2466</v>
       </c>
-      <c r="Z72" s="2" t="s">
+      <c r="Z72" s="11" t="s">
         <v>2467</v>
       </c>
       <c r="AA72" s="2"/>
@@ -21870,7 +21885,7 @@
       <c r="Y73" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="Z73" s="2" t="s">
+      <c r="Z73" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA73" s="2"/>
@@ -21952,7 +21967,7 @@
       <c r="Y74" s="2" t="s">
         <v>2479</v>
       </c>
-      <c r="Z74" s="2" t="s">
+      <c r="Z74" s="11" t="s">
         <v>2480</v>
       </c>
       <c r="AA74" s="2"/>
@@ -22034,7 +22049,7 @@
       <c r="Y75" s="2" t="s">
         <v>2490</v>
       </c>
-      <c r="Z75" s="2" t="s">
+      <c r="Z75" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA75" s="2" t="s">
@@ -22120,7 +22135,7 @@
       <c r="Y76" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA76" s="2" t="s">
@@ -22206,7 +22221,7 @@
       <c r="Y77" s="2" t="s">
         <v>2509</v>
       </c>
-      <c r="Z77" s="2" t="s">
+      <c r="Z77" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA77" s="2" t="s">
@@ -22292,7 +22307,7 @@
       <c r="Y78" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="Z78" s="2" t="s">
+      <c r="Z78" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA78" s="2"/>
@@ -22374,7 +22389,7 @@
       <c r="Y79" s="2" t="s">
         <v>2525</v>
       </c>
-      <c r="Z79" s="2" t="s">
+      <c r="Z79" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA79" s="2"/>
@@ -22454,7 +22469,7 @@
       <c r="Y80" s="2" t="s">
         <v>2533</v>
       </c>
-      <c r="Z80" s="2" t="s">
+      <c r="Z80" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA80" s="2"/>
@@ -22536,7 +22551,7 @@
       <c r="Y81" s="2" t="s">
         <v>2545</v>
       </c>
-      <c r="Z81" s="2" t="s">
+      <c r="Z81" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA81" s="2"/>
@@ -22618,7 +22633,7 @@
       <c r="Y82" s="2" t="s">
         <v>2558</v>
       </c>
-      <c r="Z82" s="2" t="s">
+      <c r="Z82" s="11" t="s">
         <v>2559</v>
       </c>
       <c r="AA82" s="2" t="s">
@@ -22704,7 +22719,7 @@
       <c r="Y83" s="2" t="s">
         <v>2571</v>
       </c>
-      <c r="Z83" s="2" t="s">
+      <c r="Z83" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA83" s="2"/>
@@ -22786,7 +22801,7 @@
       <c r="Y84" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="Z84" s="2" t="s">
+      <c r="Z84" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA84" s="2"/>
@@ -22868,7 +22883,7 @@
       <c r="Y85" s="2" t="s">
         <v>2588</v>
       </c>
-      <c r="Z85" s="2" t="s">
+      <c r="Z85" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA85" s="2"/>
@@ -22950,7 +22965,7 @@
       <c r="Y86" s="2" t="s">
         <v>2595</v>
       </c>
-      <c r="Z86" s="2" t="s">
+      <c r="Z86" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA86" s="2"/>
@@ -23032,7 +23047,7 @@
       <c r="Y87" s="2" t="s">
         <v>2603</v>
       </c>
-      <c r="Z87" s="2" t="s">
+      <c r="Z87" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA87" s="2"/>
@@ -23114,7 +23129,7 @@
       <c r="Y88" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="Z88" s="2" t="s">
+      <c r="Z88" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA88" s="2"/>
@@ -23196,7 +23211,7 @@
       <c r="Y89" s="2" t="s">
         <v>2617</v>
       </c>
-      <c r="Z89" s="2" t="s">
+      <c r="Z89" s="11" t="s">
         <v>2618</v>
       </c>
       <c r="AA89" s="2" t="s">
@@ -23282,7 +23297,7 @@
       <c r="Y90" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="Z90" s="2" t="s">
+      <c r="Z90" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA90" s="2"/>
@@ -23364,7 +23379,7 @@
       <c r="Y91" s="2" t="s">
         <v>2632</v>
       </c>
-      <c r="Z91" s="2" t="s">
+      <c r="Z91" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA91" s="2"/>
@@ -23446,7 +23461,7 @@
       <c r="Y92" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="Z92" s="2" t="s">
+      <c r="Z92" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA92" s="2"/>
@@ -23528,7 +23543,7 @@
       <c r="Y93" s="2" t="s">
         <v>2653</v>
       </c>
-      <c r="Z93" s="2" t="s">
+      <c r="Z93" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA93" s="2"/>
@@ -23610,7 +23625,7 @@
       <c r="Y94" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="Z94" s="2" t="s">
+      <c r="Z94" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA94" s="2"/>
@@ -23692,7 +23707,7 @@
       <c r="Y95" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="Z95" s="2" t="s">
+      <c r="Z95" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA95" s="2"/>
@@ -23774,7 +23789,7 @@
       <c r="Y96" s="2" t="s">
         <v>2679</v>
       </c>
-      <c r="Z96" s="2" t="s">
+      <c r="Z96" s="11" t="s">
         <v>2680</v>
       </c>
       <c r="AA96" s="2"/>
@@ -23856,7 +23871,7 @@
       <c r="Y97" s="2" t="s">
         <v>2693</v>
       </c>
-      <c r="Z97" s="2" t="s">
+      <c r="Z97" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA97" s="2"/>
@@ -23938,7 +23953,7 @@
       <c r="Y98" s="2" t="s">
         <v>2704</v>
       </c>
-      <c r="Z98" s="2" t="s">
+      <c r="Z98" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA98" s="2"/>
@@ -24020,7 +24035,7 @@
       <c r="Y99" s="2" t="s">
         <v>2711</v>
       </c>
-      <c r="Z99" s="2" t="s">
+      <c r="Z99" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA99" s="2" t="s">
@@ -24106,7 +24121,7 @@
       <c r="Y100" s="2" t="s">
         <v>2723</v>
       </c>
-      <c r="Z100" s="2" t="s">
+      <c r="Z100" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA100" s="2"/>
@@ -24188,7 +24203,7 @@
       <c r="Y101" s="2" t="s">
         <v>2732</v>
       </c>
-      <c r="Z101" s="2" t="s">
+      <c r="Z101" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA101" s="2"/>
@@ -24270,7 +24285,7 @@
       <c r="Y102" s="2" t="s">
         <v>2742</v>
       </c>
-      <c r="Z102" s="2" t="s">
+      <c r="Z102" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA102" s="2"/>
@@ -24352,7 +24367,7 @@
       <c r="Y103" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="Z103" s="2" t="s">
+      <c r="Z103" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA103" s="2"/>
@@ -24434,7 +24449,7 @@
       <c r="Y104" s="2" t="s">
         <v>2770</v>
       </c>
-      <c r="Z104" s="2" t="s">
+      <c r="Z104" s="11" t="s">
         <v>2771</v>
       </c>
       <c r="AA104" s="2"/>
@@ -24516,7 +24531,7 @@
       <c r="Y105" s="2" t="s">
         <v>2784</v>
       </c>
-      <c r="Z105" s="2" t="s">
+      <c r="Z105" s="11" t="s">
         <v>2785</v>
       </c>
       <c r="AA105" s="2"/>
@@ -24598,7 +24613,7 @@
       <c r="Y106" s="2" t="s">
         <v>2797</v>
       </c>
-      <c r="Z106" s="2" t="s">
+      <c r="Z106" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA106" s="2"/>
@@ -24680,7 +24695,7 @@
       <c r="Y107" s="2" t="s">
         <v>2810</v>
       </c>
-      <c r="Z107" s="2" t="s">
+      <c r="Z107" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA107" s="2" t="s">
@@ -24766,7 +24781,7 @@
       <c r="Y108" s="2" t="s">
         <v>2821</v>
       </c>
-      <c r="Z108" s="2" t="s">
+      <c r="Z108" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA108" s="2" t="s">
@@ -24852,7 +24867,7 @@
       <c r="Y109" s="2" t="s">
         <v>2832</v>
       </c>
-      <c r="Z109" s="2" t="s">
+      <c r="Z109" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA109" s="2"/>
@@ -24934,7 +24949,7 @@
       <c r="Y110" s="2" t="s">
         <v>2845</v>
       </c>
-      <c r="Z110" s="2" t="s">
+      <c r="Z110" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA110" s="2" t="s">
@@ -25020,7 +25035,7 @@
       <c r="Y111" s="2" t="s">
         <v>2857</v>
       </c>
-      <c r="Z111" s="2" t="s">
+      <c r="Z111" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA111" s="2"/>
@@ -25102,7 +25117,7 @@
       <c r="Y112" s="2" t="s">
         <v>2871</v>
       </c>
-      <c r="Z112" s="2" t="s">
+      <c r="Z112" s="11" t="s">
         <v>2872</v>
       </c>
       <c r="AA112" s="2" t="s">
@@ -25188,7 +25203,7 @@
       <c r="Y113" s="2" t="s">
         <v>2887</v>
       </c>
-      <c r="Z113" s="2" t="s">
+      <c r="Z113" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA113" s="2" t="s">
@@ -25274,7 +25289,7 @@
       <c r="Y114" s="2" t="s">
         <v>2894</v>
       </c>
-      <c r="Z114" s="2" t="s">
+      <c r="Z114" s="11" t="s">
         <v>2895</v>
       </c>
       <c r="AA114" s="2"/>
@@ -25356,7 +25371,7 @@
       <c r="Y115" s="2" t="s">
         <v>2906</v>
       </c>
-      <c r="Z115" s="2" t="s">
+      <c r="Z115" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA115" s="2"/>
@@ -25438,7 +25453,7 @@
       <c r="Y116" s="2" t="s">
         <v>2913</v>
       </c>
-      <c r="Z116" s="2" t="s">
+      <c r="Z116" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA116" s="2"/>
@@ -25520,7 +25535,7 @@
       <c r="Y117" s="2" t="s">
         <v>2921</v>
       </c>
-      <c r="Z117" s="2" t="s">
+      <c r="Z117" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA117" s="2"/>
@@ -25602,7 +25617,7 @@
       <c r="Y118" s="2" t="s">
         <v>2930</v>
       </c>
-      <c r="Z118" s="2" t="s">
+      <c r="Z118" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA118" s="2"/>
@@ -25684,7 +25699,7 @@
       <c r="Y119" s="2" t="s">
         <v>2936</v>
       </c>
-      <c r="Z119" s="2" t="s">
+      <c r="Z119" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA119" s="2"/>
@@ -25766,89 +25781,89 @@
       <c r="Y120" s="2" t="s">
         <v>2946</v>
       </c>
-      <c r="Z120" s="2" t="s">
+      <c r="Z120" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17" customFormat="1" s="10">
-      <c r="A121" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17" customFormat="1" s="14">
+      <c r="A121" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D121" s="11" t="s">
+      <c r="C121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>1668</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="15" t="s">
         <v>1679</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="15" t="s">
         <v>2947</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I121" s="11" t="s">
+      <c r="G121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I121" s="15" t="s">
         <v>2948</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="15" t="s">
         <v>1682</v>
       </c>
-      <c r="K121" s="11" t="s">
+      <c r="K121" s="15" t="s">
         <v>1683</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="15" t="s">
         <v>1684</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="15" t="s">
         <v>2204</v>
       </c>
-      <c r="N121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O121" s="11" t="s">
+      <c r="N121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O121" s="15" t="s">
         <v>2949</v>
       </c>
-      <c r="P121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q121" s="11" t="s">
+      <c r="P121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q121" s="15" t="s">
         <v>2935</v>
       </c>
-      <c r="R121" s="11" t="s">
+      <c r="R121" s="15" t="s">
         <v>2950</v>
       </c>
-      <c r="S121" s="11" t="s">
+      <c r="S121" s="15" t="s">
         <v>2951</v>
       </c>
-      <c r="T121" s="11" t="s">
+      <c r="T121" s="15" t="s">
         <v>2952</v>
       </c>
-      <c r="U121" s="11" t="s">
+      <c r="U121" s="15" t="s">
         <v>2953</v>
       </c>
-      <c r="V121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W121" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X121" s="11" t="s">
+      <c r="V121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W121" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X121" s="15" t="s">
         <v>2954</v>
       </c>
-      <c r="Y121" s="11" t="s">
+      <c r="Y121" s="15" t="s">
         <v>2955</v>
       </c>
-      <c r="Z121" s="12" t="s">
+      <c r="Z121" s="16" t="s">
         <v>2956</v>
       </c>
       <c r="AA121" s="11"/>
@@ -25930,7 +25945,7 @@
       <c r="Y122" s="2" t="s">
         <v>2967</v>
       </c>
-      <c r="Z122" s="2" t="s">
+      <c r="Z122" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA122" s="2" t="s">
@@ -26016,7 +26031,7 @@
       <c r="Y123" s="2" t="s">
         <v>2977</v>
       </c>
-      <c r="Z123" s="2" t="s">
+      <c r="Z123" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA123" s="2"/>
@@ -26098,7 +26113,7 @@
       <c r="Y124" s="2" t="s">
         <v>2987</v>
       </c>
-      <c r="Z124" s="2" t="s">
+      <c r="Z124" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA124" s="2" t="s">
@@ -26184,7 +26199,7 @@
       <c r="Y125" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="Z125" s="2" t="s">
+      <c r="Z125" s="11" t="s">
         <v>2999</v>
       </c>
       <c r="AA125" s="2"/>
@@ -26266,7 +26281,7 @@
       <c r="Y126" s="2" t="s">
         <v>3010</v>
       </c>
-      <c r="Z126" s="2" t="s">
+      <c r="Z126" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA126" s="2" t="s">
@@ -26352,7 +26367,7 @@
       <c r="Y127" s="2" t="s">
         <v>3026</v>
       </c>
-      <c r="Z127" s="2" t="s">
+      <c r="Z127" s="11" t="s">
         <v>3027</v>
       </c>
       <c r="AA127" s="2"/>
@@ -26434,7 +26449,7 @@
       <c r="Y128" s="2" t="s">
         <v>3033</v>
       </c>
-      <c r="Z128" s="2" t="s">
+      <c r="Z128" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA128" s="2" t="s">
@@ -26444,83 +26459,83 @@
         <v>3035</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18" customFormat="1" s="10">
-      <c r="A129" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18" customFormat="1" s="14">
+      <c r="A129" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D129" s="11" t="s">
+      <c r="C129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D129" s="15" t="s">
         <v>1774</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="15" t="s">
         <v>1669</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="15" t="s">
         <v>3036</v>
       </c>
-      <c r="G129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H129" s="11" t="s">
+      <c r="G129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H129" s="15" t="s">
         <v>3037</v>
       </c>
-      <c r="I129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K129" s="11" t="s">
+      <c r="I129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K129" s="15" t="s">
         <v>1999</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="15" t="s">
         <v>1684</v>
       </c>
-      <c r="M129" s="11" t="s">
+      <c r="M129" s="15" t="s">
         <v>1747</v>
       </c>
-      <c r="N129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O129" s="11" t="s">
+      <c r="N129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O129" s="15" t="s">
         <v>3038</v>
       </c>
-      <c r="P129" s="11" t="s">
+      <c r="P129" s="15" t="s">
         <v>3039</v>
       </c>
-      <c r="Q129" s="11" t="s">
+      <c r="Q129" s="15" t="s">
         <v>3040</v>
       </c>
-      <c r="R129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="S129" s="11" t="s">
+      <c r="R129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S129" s="15" t="s">
         <v>3041</v>
       </c>
-      <c r="T129" s="11" t="s">
+      <c r="T129" s="15" t="s">
         <v>2767</v>
       </c>
-      <c r="U129" s="11" t="s">
+      <c r="U129" s="15" t="s">
         <v>3042</v>
       </c>
-      <c r="V129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W129" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X129" s="11" t="s">
+      <c r="V129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W129" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X129" s="15" t="s">
         <v>2227</v>
       </c>
-      <c r="Y129" s="11" t="s">
+      <c r="Y129" s="15" t="s">
         <v>3043</v>
       </c>
-      <c r="Z129" s="12" t="s">
+      <c r="Z129" s="16" t="s">
         <v>3044</v>
       </c>
       <c r="AA129" s="11"/>
@@ -26602,7 +26617,7 @@
       <c r="Y130" s="2" t="s">
         <v>3056</v>
       </c>
-      <c r="Z130" s="2" t="s">
+      <c r="Z130" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA130" s="2"/>
@@ -26684,7 +26699,7 @@
       <c r="Y131" s="2" t="s">
         <v>3067</v>
       </c>
-      <c r="Z131" s="2" t="s">
+      <c r="Z131" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA131" s="2"/>
@@ -26766,7 +26781,7 @@
       <c r="Y132" s="2" t="s">
         <v>3079</v>
       </c>
-      <c r="Z132" s="2" t="s">
+      <c r="Z132" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA132" s="2"/>
@@ -26848,7 +26863,7 @@
       <c r="Y133" s="2" t="s">
         <v>3089</v>
       </c>
-      <c r="Z133" s="2" t="s">
+      <c r="Z133" s="11" t="s">
         <v>3090</v>
       </c>
       <c r="AA133" s="2"/>
@@ -26930,7 +26945,7 @@
       <c r="Y134" s="2" t="s">
         <v>3099</v>
       </c>
-      <c r="Z134" s="2" t="s">
+      <c r="Z134" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA134" s="2"/>
@@ -27012,7 +27027,7 @@
       <c r="Y135" s="2" t="s">
         <v>3110</v>
       </c>
-      <c r="Z135" s="2" t="s">
+      <c r="Z135" s="11" t="s">
         <v>3111</v>
       </c>
       <c r="AA135" s="2"/>
@@ -27094,7 +27109,7 @@
       <c r="Y136" s="2" t="s">
         <v>3120</v>
       </c>
-      <c r="Z136" s="2" t="s">
+      <c r="Z136" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA136" s="2"/>
@@ -27176,7 +27191,7 @@
       <c r="Y137" s="2" t="s">
         <v>3131</v>
       </c>
-      <c r="Z137" s="2" t="s">
+      <c r="Z137" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA137" s="2"/>
@@ -27258,7 +27273,7 @@
       <c r="Y138" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="Z138" s="2" t="s">
+      <c r="Z138" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA138" s="2"/>
@@ -27340,7 +27355,7 @@
       <c r="Y139" s="2" t="s">
         <v>3149</v>
       </c>
-      <c r="Z139" s="2" t="s">
+      <c r="Z139" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA139" s="2"/>
@@ -27422,7 +27437,7 @@
       <c r="Y140" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="Z140" s="2" t="s">
+      <c r="Z140" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA140" s="2"/>
@@ -27504,7 +27519,7 @@
       <c r="Y141" s="2" t="s">
         <v>3166</v>
       </c>
-      <c r="Z141" s="2" t="s">
+      <c r="Z141" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA141" s="2"/>
@@ -27586,7 +27601,7 @@
       <c r="Y142" s="2" t="s">
         <v>3180</v>
       </c>
-      <c r="Z142" s="2" t="s">
+      <c r="Z142" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA142" s="2" t="s">
@@ -27672,7 +27687,7 @@
       <c r="Y143" s="2" t="s">
         <v>3192</v>
       </c>
-      <c r="Z143" s="2" t="s">
+      <c r="Z143" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA143" s="2" t="s">
@@ -27758,7 +27773,7 @@
       <c r="Y144" s="2" t="s">
         <v>3202</v>
       </c>
-      <c r="Z144" s="2" t="s">
+      <c r="Z144" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA144" s="2" t="s">
@@ -27844,7 +27859,7 @@
       <c r="Y145" s="2" t="s">
         <v>3212</v>
       </c>
-      <c r="Z145" s="2" t="s">
+      <c r="Z145" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA145" s="2"/>
@@ -27926,7 +27941,7 @@
       <c r="Y146" s="2" t="s">
         <v>3226</v>
       </c>
-      <c r="Z146" s="2" t="s">
+      <c r="Z146" s="11" t="s">
         <v>3227</v>
       </c>
       <c r="AA146" s="2"/>
@@ -28008,7 +28023,7 @@
       <c r="Y147" s="2" t="s">
         <v>3242</v>
       </c>
-      <c r="Z147" s="2" t="s">
+      <c r="Z147" s="11" t="s">
         <v>3243</v>
       </c>
       <c r="AA147" s="2" t="s">
@@ -28094,7 +28109,7 @@
       <c r="Y148" s="2" t="s">
         <v>3256</v>
       </c>
-      <c r="Z148" s="2" t="s">
+      <c r="Z148" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA148" s="2"/>
@@ -28176,7 +28191,7 @@
       <c r="Y149" s="2" t="s">
         <v>3272</v>
       </c>
-      <c r="Z149" s="2" t="s">
+      <c r="Z149" s="11" t="s">
         <v>3273</v>
       </c>
       <c r="AA149" s="2"/>
@@ -28258,7 +28273,7 @@
       <c r="Y150" s="2" t="s">
         <v>3284</v>
       </c>
-      <c r="Z150" s="2" t="s">
+      <c r="Z150" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA150" s="2"/>
@@ -28340,7 +28355,7 @@
       <c r="Y151" s="2" t="s">
         <v>3291</v>
       </c>
-      <c r="Z151" s="2" t="s">
+      <c r="Z151" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA151" s="2" t="s">
@@ -28426,7 +28441,7 @@
       <c r="Y152" s="2" t="s">
         <v>3298</v>
       </c>
-      <c r="Z152" s="2" t="s">
+      <c r="Z152" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA152" s="2"/>
@@ -28508,7 +28523,7 @@
       <c r="Y153" s="2" t="s">
         <v>3308</v>
       </c>
-      <c r="Z153" s="2" t="s">
+      <c r="Z153" s="11" t="s">
         <v>3309</v>
       </c>
       <c r="AA153" s="2" t="s">
@@ -28594,7 +28609,7 @@
       <c r="Y154" s="2" t="s">
         <v>3320</v>
       </c>
-      <c r="Z154" s="2" t="s">
+      <c r="Z154" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA154" s="2" t="s">
@@ -28680,7 +28695,7 @@
       <c r="Y155" s="2" t="s">
         <v>3325</v>
       </c>
-      <c r="Z155" s="2" t="s">
+      <c r="Z155" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA155" s="2"/>
@@ -28762,7 +28777,7 @@
       <c r="Y156" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="Z156" s="2" t="s">
+      <c r="Z156" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA156" s="2"/>
@@ -28844,7 +28859,7 @@
       <c r="Y157" s="2" t="s">
         <v>3341</v>
       </c>
-      <c r="Z157" s="2" t="s">
+      <c r="Z157" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA157" s="2"/>
@@ -28926,7 +28941,7 @@
       <c r="Y158" s="2" t="s">
         <v>3350</v>
       </c>
-      <c r="Z158" s="2" t="s">
+      <c r="Z158" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA158" s="2" t="s">
@@ -29012,7 +29027,7 @@
       <c r="Y159" s="2" t="s">
         <v>3361</v>
       </c>
-      <c r="Z159" s="2" t="s">
+      <c r="Z159" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA159" s="2"/>
@@ -29094,7 +29109,7 @@
       <c r="Y160" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="Z160" s="2" t="s">
+      <c r="Z160" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA160" s="2"/>
@@ -29176,7 +29191,7 @@
       <c r="Y161" s="2" t="s">
         <v>3378</v>
       </c>
-      <c r="Z161" s="2" t="s">
+      <c r="Z161" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA161" s="2"/>
@@ -29258,7 +29273,7 @@
       <c r="Y162" s="2" t="s">
         <v>3385</v>
       </c>
-      <c r="Z162" s="2" t="s">
+      <c r="Z162" s="11" t="s">
         <v>3386</v>
       </c>
       <c r="AA162" s="2"/>
@@ -29340,7 +29355,7 @@
       <c r="Y163" s="2" t="s">
         <v>3396</v>
       </c>
-      <c r="Z163" s="2" t="s">
+      <c r="Z163" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA163" s="2"/>
@@ -29422,7 +29437,7 @@
       <c r="Y164" s="2" t="s">
         <v>3408</v>
       </c>
-      <c r="Z164" s="2" t="s">
+      <c r="Z164" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA164" s="2" t="s">
@@ -29508,7 +29523,7 @@
       <c r="Y165" s="2" t="s">
         <v>3421</v>
       </c>
-      <c r="Z165" s="2" t="s">
+      <c r="Z165" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA165" s="2"/>
@@ -29590,7 +29605,7 @@
       <c r="Y166" s="2" t="s">
         <v>3435</v>
       </c>
-      <c r="Z166" s="2" t="s">
+      <c r="Z166" s="11" t="s">
         <v>3436</v>
       </c>
       <c r="AA166" s="2" t="s">
@@ -29676,7 +29691,7 @@
       <c r="Y167" s="2" t="s">
         <v>3443</v>
       </c>
-      <c r="Z167" s="2" t="s">
+      <c r="Z167" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA167" s="2"/>
@@ -29758,7 +29773,7 @@
       <c r="Y168" s="2" t="s">
         <v>3455</v>
       </c>
-      <c r="Z168" s="2" t="s">
+      <c r="Z168" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA168" s="2"/>
@@ -29840,7 +29855,7 @@
       <c r="Y169" s="2" t="s">
         <v>3465</v>
       </c>
-      <c r="Z169" s="2" t="s">
+      <c r="Z169" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA169" s="2" t="s">
@@ -29850,83 +29865,83 @@
         <v>3466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15" customFormat="1" s="10">
-      <c r="A170" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15" customFormat="1" s="14">
+      <c r="A170" s="15" t="s">
         <v>1299</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="15" t="s">
         <v>1297</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D170" s="11" t="s">
+      <c r="C170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D170" s="15" t="s">
         <v>1784</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="15" t="s">
         <v>1936</v>
       </c>
-      <c r="F170" s="11" t="s">
+      <c r="F170" s="15" t="s">
         <v>3467</v>
       </c>
-      <c r="G170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H170" s="11" t="s">
+      <c r="G170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H170" s="15" t="s">
         <v>3468</v>
       </c>
-      <c r="I170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K170" s="11" t="s">
+      <c r="I170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>1999</v>
       </c>
-      <c r="L170" s="11" t="s">
+      <c r="L170" s="15" t="s">
         <v>1684</v>
       </c>
-      <c r="M170" s="11" t="s">
+      <c r="M170" s="15" t="s">
         <v>2204</v>
       </c>
-      <c r="N170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O170" s="11" t="s">
+      <c r="N170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O170" s="15" t="s">
         <v>3469</v>
       </c>
-      <c r="P170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="R170" s="11" t="s">
+      <c r="P170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="R170" s="15" t="s">
         <v>3470</v>
       </c>
-      <c r="S170" s="11" t="s">
+      <c r="S170" s="15" t="s">
         <v>3471</v>
       </c>
-      <c r="T170" s="11" t="s">
+      <c r="T170" s="15" t="s">
         <v>1894</v>
       </c>
-      <c r="U170" s="11" t="s">
+      <c r="U170" s="15" t="s">
         <v>3472</v>
       </c>
-      <c r="V170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W170" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X170" s="11" t="s">
+      <c r="V170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W170" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X170" s="15" t="s">
         <v>3473</v>
       </c>
-      <c r="Y170" s="11" t="s">
+      <c r="Y170" s="15" t="s">
         <v>3474</v>
       </c>
-      <c r="Z170" s="12" t="s">
+      <c r="Z170" s="16" t="s">
         <v>3475</v>
       </c>
       <c r="AA170" s="11"/>
@@ -30008,7 +30023,7 @@
       <c r="Y171" s="2" t="s">
         <v>3483</v>
       </c>
-      <c r="Z171" s="2" t="s">
+      <c r="Z171" s="11" t="s">
         <v>3484</v>
       </c>
       <c r="AA171" s="2" t="s">
@@ -30094,7 +30109,7 @@
       <c r="Y172" s="2" t="s">
         <v>3495</v>
       </c>
-      <c r="Z172" s="2" t="s">
+      <c r="Z172" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA172" s="2"/>
@@ -30176,7 +30191,7 @@
       <c r="Y173" s="2" t="s">
         <v>3503</v>
       </c>
-      <c r="Z173" s="2" t="s">
+      <c r="Z173" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA173" s="2"/>
@@ -30258,7 +30273,7 @@
       <c r="Y174" s="2" t="s">
         <v>3517</v>
       </c>
-      <c r="Z174" s="2" t="s">
+      <c r="Z174" s="11" t="s">
         <v>3518</v>
       </c>
       <c r="AA174" s="2"/>
@@ -30340,7 +30355,7 @@
       <c r="Y175" s="2" t="s">
         <v>3528</v>
       </c>
-      <c r="Z175" s="2" t="s">
+      <c r="Z175" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA175" s="2" t="s">
@@ -30426,7 +30441,7 @@
       <c r="Y176" s="2" t="s">
         <v>3534</v>
       </c>
-      <c r="Z176" s="2" t="s">
+      <c r="Z176" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA176" s="2"/>
@@ -30508,7 +30523,7 @@
       <c r="Y177" s="2" t="s">
         <v>3546</v>
       </c>
-      <c r="Z177" s="2" t="s">
+      <c r="Z177" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA177" s="2"/>
@@ -30590,7 +30605,7 @@
       <c r="Y178" s="2" t="s">
         <v>3556</v>
       </c>
-      <c r="Z178" s="2" t="s">
+      <c r="Z178" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA178" s="2" t="s">
@@ -30676,7 +30691,7 @@
       <c r="Y179" s="2" t="s">
         <v>3567</v>
       </c>
-      <c r="Z179" s="2" t="s">
+      <c r="Z179" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA179" s="2"/>
@@ -30758,7 +30773,7 @@
       <c r="Y180" s="2" t="s">
         <v>3577</v>
       </c>
-      <c r="Z180" s="2" t="s">
+      <c r="Z180" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA180" s="2"/>
@@ -30840,7 +30855,7 @@
       <c r="Y181" s="2" t="s">
         <v>3585</v>
       </c>
-      <c r="Z181" s="2" t="s">
+      <c r="Z181" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA181" s="2"/>
@@ -30922,7 +30937,7 @@
       <c r="Y182" s="2" t="s">
         <v>3593</v>
       </c>
-      <c r="Z182" s="2" t="s">
+      <c r="Z182" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA182" s="2"/>
@@ -31004,13 +31019,13 @@
       <c r="Y183" s="2" t="s">
         <v>3601</v>
       </c>
-      <c r="Z183" s="2" t="s">
+      <c r="Z183" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="54">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="438">
       <c r="A184" s="2" t="s">
         <v>3602</v>
       </c>
@@ -31086,7 +31101,7 @@
       <c r="Y184" s="2" t="s">
         <v>3612</v>
       </c>
-      <c r="Z184" s="2" t="s">
+      <c r="Z184" s="11" t="s">
         <v>3613</v>
       </c>
       <c r="AA184" s="2"/>
@@ -31168,7 +31183,7 @@
       <c r="Y185" s="2" t="s">
         <v>3622</v>
       </c>
-      <c r="Z185" s="2" t="s">
+      <c r="Z185" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA185" s="2"/>
@@ -31250,7 +31265,7 @@
       <c r="Y186" s="2" t="s">
         <v>3633</v>
       </c>
-      <c r="Z186" s="2" t="s">
+      <c r="Z186" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA186" s="2"/>
@@ -31332,7 +31347,7 @@
       <c r="Y187" s="2" t="s">
         <v>3643</v>
       </c>
-      <c r="Z187" s="2" t="s">
+      <c r="Z187" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA187" s="2" t="s">
@@ -31418,7 +31433,7 @@
       <c r="Y188" s="2" t="s">
         <v>3653</v>
       </c>
-      <c r="Z188" s="2" t="s">
+      <c r="Z188" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA188" s="2" t="s">
@@ -31504,7 +31519,7 @@
       <c r="Y189" s="2" t="s">
         <v>3662</v>
       </c>
-      <c r="Z189" s="2" t="s">
+      <c r="Z189" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA189" s="2"/>
@@ -31586,7 +31601,7 @@
       <c r="Y190" s="2" t="s">
         <v>3672</v>
       </c>
-      <c r="Z190" s="2" t="s">
+      <c r="Z190" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA190" s="2" t="s">
@@ -31672,7 +31687,7 @@
       <c r="Y191" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="Z191" s="2" t="s">
+      <c r="Z191" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA191" s="2"/>
@@ -31754,7 +31769,7 @@
       <c r="Y192" s="2" t="s">
         <v>3687</v>
       </c>
-      <c r="Z192" s="2" t="s">
+      <c r="Z192" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA192" s="2"/>
@@ -31836,7 +31851,7 @@
       <c r="Y193" s="2" t="s">
         <v>3697</v>
       </c>
-      <c r="Z193" s="2" t="s">
+      <c r="Z193" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA193" s="2" t="s">
@@ -31922,7 +31937,7 @@
       <c r="Y194" s="2" t="s">
         <v>3710</v>
       </c>
-      <c r="Z194" s="2" t="s">
+      <c r="Z194" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA194" s="2" t="s">
@@ -32008,7 +32023,7 @@
       <c r="Y195" s="2" t="s">
         <v>3722</v>
       </c>
-      <c r="Z195" s="2" t="s">
+      <c r="Z195" s="11" t="s">
         <v>3720</v>
       </c>
       <c r="AA195" s="2"/>
@@ -32090,7 +32105,7 @@
       <c r="Y196" s="2" t="s">
         <v>3733</v>
       </c>
-      <c r="Z196" s="2" t="s">
+      <c r="Z196" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA196" s="2"/>
@@ -32172,7 +32187,7 @@
       <c r="Y197" s="2" t="s">
         <v>3744</v>
       </c>
-      <c r="Z197" s="2" t="s">
+      <c r="Z197" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA197" s="2"/>
@@ -32254,7 +32269,7 @@
       <c r="Y198" s="2" t="s">
         <v>3752</v>
       </c>
-      <c r="Z198" s="2" t="s">
+      <c r="Z198" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA198" s="2"/>
@@ -32336,7 +32351,7 @@
       <c r="Y199" s="2" t="s">
         <v>3768</v>
       </c>
-      <c r="Z199" s="2" t="s">
+      <c r="Z199" s="11" t="s">
         <v>3769</v>
       </c>
       <c r="AA199" s="2"/>
@@ -32418,7 +32433,7 @@
       <c r="Y200" s="2" t="s">
         <v>3778</v>
       </c>
-      <c r="Z200" s="2" t="s">
+      <c r="Z200" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA200" s="2"/>
@@ -32500,7 +32515,7 @@
       <c r="Y201" s="2" t="s">
         <v>3786</v>
       </c>
-      <c r="Z201" s="2" t="s">
+      <c r="Z201" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA201" s="2"/>
@@ -32582,7 +32597,7 @@
       <c r="Y202" s="2" t="s">
         <v>3797</v>
       </c>
-      <c r="Z202" s="2" t="s">
+      <c r="Z202" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA202" s="2" t="s">
@@ -32668,7 +32683,7 @@
       <c r="Y203" s="2" t="s">
         <v>3809</v>
       </c>
-      <c r="Z203" s="2" t="s">
+      <c r="Z203" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA203" s="2"/>
@@ -32750,7 +32765,7 @@
       <c r="Y204" s="2" t="s">
         <v>3819</v>
       </c>
-      <c r="Z204" s="2" t="s">
+      <c r="Z204" s="11" t="s">
         <v>3820</v>
       </c>
       <c r="AA204" s="2" t="s">
@@ -32836,7 +32851,7 @@
       <c r="Y205" s="2" t="s">
         <v>3832</v>
       </c>
-      <c r="Z205" s="2" t="s">
+      <c r="Z205" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA205" s="2"/>
@@ -32918,7 +32933,7 @@
       <c r="Y206" s="2" t="s">
         <v>3842</v>
       </c>
-      <c r="Z206" s="2" t="s">
+      <c r="Z206" s="11" t="s">
         <v>3843</v>
       </c>
       <c r="AA206" s="2" t="s">
@@ -33004,7 +33019,7 @@
       <c r="Y207" s="2" t="s">
         <v>3854</v>
       </c>
-      <c r="Z207" s="2" t="s">
+      <c r="Z207" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA207" s="2" t="s">
@@ -33090,7 +33105,7 @@
       <c r="Y208" s="2" t="s">
         <v>3868</v>
       </c>
-      <c r="Z208" s="2" t="s">
+      <c r="Z208" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA208" s="2" t="s">
@@ -33176,7 +33191,7 @@
       <c r="Y209" s="2" t="s">
         <v>3881</v>
       </c>
-      <c r="Z209" s="2" t="s">
+      <c r="Z209" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA209" s="2"/>
@@ -33258,7 +33273,7 @@
       <c r="Y210" s="2" t="s">
         <v>3891</v>
       </c>
-      <c r="Z210" s="2" t="s">
+      <c r="Z210" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA210" s="2"/>
@@ -33340,7 +33355,7 @@
       <c r="Y211" s="2" t="s">
         <v>3897</v>
       </c>
-      <c r="Z211" s="2" t="s">
+      <c r="Z211" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA211" s="2"/>
@@ -33422,7 +33437,7 @@
       <c r="Y212" s="2" t="s">
         <v>3907</v>
       </c>
-      <c r="Z212" s="2" t="s">
+      <c r="Z212" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA212" s="2"/>
@@ -33504,7 +33519,7 @@
       <c r="Y213" s="2" t="s">
         <v>3916</v>
       </c>
-      <c r="Z213" s="2" t="s">
+      <c r="Z213" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA213" s="2" t="s">
@@ -33590,7 +33605,7 @@
       <c r="Y214" s="2" t="s">
         <v>3927</v>
       </c>
-      <c r="Z214" s="2" t="s">
+      <c r="Z214" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA214" s="2"/>
@@ -33672,7 +33687,7 @@
       <c r="Y215" s="2" t="s">
         <v>3936</v>
       </c>
-      <c r="Z215" s="2" t="s">
+      <c r="Z215" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA215" s="2" t="s">
@@ -33758,7 +33773,7 @@
       <c r="Y216" s="2" t="s">
         <v>3948</v>
       </c>
-      <c r="Z216" s="2" t="s">
+      <c r="Z216" s="11" t="s">
         <v>3949</v>
       </c>
       <c r="AA216" s="2" t="s">
@@ -33844,7 +33859,7 @@
       <c r="Y217" s="2" t="s">
         <v>3959</v>
       </c>
-      <c r="Z217" s="2" t="s">
+      <c r="Z217" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA217" s="2" t="s">
@@ -33930,7 +33945,7 @@
       <c r="Y218" s="2" t="s">
         <v>3969</v>
       </c>
-      <c r="Z218" s="2" t="s">
+      <c r="Z218" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA218" s="2"/>
@@ -34012,7 +34027,7 @@
       <c r="Y219" s="2" t="s">
         <v>3976</v>
       </c>
-      <c r="Z219" s="2" t="s">
+      <c r="Z219" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA219" s="2"/>
@@ -34094,7 +34109,7 @@
       <c r="Y220" s="2" t="s">
         <v>3987</v>
       </c>
-      <c r="Z220" s="2" t="s">
+      <c r="Z220" s="11" t="s">
         <v>3988</v>
       </c>
       <c r="AA220" s="2"/>
@@ -34176,7 +34191,7 @@
       <c r="Y221" s="2" t="s">
         <v>3999</v>
       </c>
-      <c r="Z221" s="2" t="s">
+      <c r="Z221" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA221" s="2" t="s">
@@ -34262,7 +34277,7 @@
       <c r="Y222" s="2" t="s">
         <v>4013</v>
       </c>
-      <c r="Z222" s="2" t="s">
+      <c r="Z222" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA222" s="2"/>
@@ -34344,7 +34359,7 @@
       <c r="Y223" s="2" t="s">
         <v>4022</v>
       </c>
-      <c r="Z223" s="2" t="s">
+      <c r="Z223" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA223" s="2" t="s">
@@ -34430,7 +34445,7 @@
       <c r="Y224" s="2" t="s">
         <v>4030</v>
       </c>
-      <c r="Z224" s="2" t="s">
+      <c r="Z224" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA224" s="2"/>
@@ -34512,7 +34527,7 @@
       <c r="Y225" s="2" t="s">
         <v>4037</v>
       </c>
-      <c r="Z225" s="2" t="s">
+      <c r="Z225" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA225" s="2"/>
@@ -34594,7 +34609,7 @@
       <c r="Y226" s="2" t="s">
         <v>4045</v>
       </c>
-      <c r="Z226" s="2" t="s">
+      <c r="Z226" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA226" s="2"/>
@@ -34676,7 +34691,7 @@
       <c r="Y227" s="2" t="s">
         <v>4057</v>
       </c>
-      <c r="Z227" s="2" t="s">
+      <c r="Z227" s="11" t="s">
         <v>4058</v>
       </c>
       <c r="AA227" s="2"/>
@@ -34758,7 +34773,7 @@
       <c r="Y228" s="2" t="s">
         <v>4069</v>
       </c>
-      <c r="Z228" s="2" t="s">
+      <c r="Z228" s="11" t="s">
         <v>4070</v>
       </c>
       <c r="AA228" s="2" t="s">
@@ -34844,7 +34859,7 @@
       <c r="Y229" s="2" t="s">
         <v>4080</v>
       </c>
-      <c r="Z229" s="2" t="s">
+      <c r="Z229" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA229" s="2"/>
@@ -34926,7 +34941,7 @@
       <c r="Y230" s="2" t="s">
         <v>4090</v>
       </c>
-      <c r="Z230" s="2" t="s">
+      <c r="Z230" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA230" s="2"/>
@@ -35008,7 +35023,7 @@
       <c r="Y231" s="2" t="s">
         <v>4098</v>
       </c>
-      <c r="Z231" s="2" t="s">
+      <c r="Z231" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA231" s="2"/>
@@ -35090,7 +35105,7 @@
       <c r="Y232" s="2" t="s">
         <v>4108</v>
       </c>
-      <c r="Z232" s="2" t="s">
+      <c r="Z232" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA232" s="2"/>
@@ -35172,7 +35187,7 @@
       <c r="Y233" s="2" t="s">
         <v>4116</v>
       </c>
-      <c r="Z233" s="2" t="s">
+      <c r="Z233" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA233" s="2"/>
@@ -35254,7 +35269,7 @@
       <c r="Y234" s="2" t="s">
         <v>4124</v>
       </c>
-      <c r="Z234" s="2" t="s">
+      <c r="Z234" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA234" s="2" t="s">
@@ -35340,7 +35355,7 @@
       <c r="Y235" s="2" t="s">
         <v>4134</v>
       </c>
-      <c r="Z235" s="2" t="s">
+      <c r="Z235" s="11" t="s">
         <v>4135</v>
       </c>
       <c r="AA235" s="2"/>
@@ -35422,7 +35437,7 @@
       <c r="Y236" s="2" t="s">
         <v>4143</v>
       </c>
-      <c r="Z236" s="2" t="s">
+      <c r="Z236" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA236" s="2" t="s">
@@ -35508,7 +35523,7 @@
       <c r="Y237" s="2" t="s">
         <v>4154</v>
       </c>
-      <c r="Z237" s="2" t="s">
+      <c r="Z237" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA237" s="2" t="s">
@@ -35594,7 +35609,7 @@
       <c r="Y238" s="2" t="s">
         <v>4162</v>
       </c>
-      <c r="Z238" s="2" t="s">
+      <c r="Z238" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA238" s="2"/>
@@ -35676,7 +35691,7 @@
       <c r="Y239" s="2" t="s">
         <v>4172</v>
       </c>
-      <c r="Z239" s="2" t="s">
+      <c r="Z239" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA239" s="2"/>
@@ -35758,7 +35773,7 @@
       <c r="Y240" s="2" t="s">
         <v>4179</v>
       </c>
-      <c r="Z240" s="2" t="s">
+      <c r="Z240" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA240" s="2"/>
@@ -35840,7 +35855,7 @@
       <c r="Y241" s="2" t="s">
         <v>4190</v>
       </c>
-      <c r="Z241" s="2" t="s">
+      <c r="Z241" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA241" s="2" t="s">
@@ -35850,83 +35865,83 @@
         <v>4192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17" customFormat="1" s="10">
-      <c r="A242" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17" customFormat="1" s="14">
+      <c r="A242" s="15" t="s">
         <v>1444</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="15" t="s">
         <v>1442</v>
       </c>
-      <c r="C242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D242" s="11" t="s">
+      <c r="C242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D242" s="15" t="s">
         <v>1774</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E242" s="15" t="s">
         <v>1936</v>
       </c>
-      <c r="F242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H242" s="11" t="s">
+      <c r="F242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H242" s="15" t="s">
         <v>4193</v>
       </c>
-      <c r="I242" s="11" t="s">
+      <c r="I242" s="15" t="s">
         <v>4194</v>
       </c>
-      <c r="J242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K242" s="11" t="s">
+      <c r="J242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>1979</v>
       </c>
-      <c r="L242" s="11" t="s">
+      <c r="L242" s="15" t="s">
         <v>1684</v>
       </c>
-      <c r="M242" s="11" t="s">
+      <c r="M242" s="15" t="s">
         <v>1747</v>
       </c>
-      <c r="N242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O242" s="11" t="s">
+      <c r="N242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O242" s="15" t="s">
         <v>4195</v>
       </c>
-      <c r="P242" s="11" t="s">
+      <c r="P242" s="15" t="s">
         <v>4196</v>
       </c>
-      <c r="Q242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="R242" s="11" t="s">
+      <c r="Q242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="R242" s="15" t="s">
         <v>4197</v>
       </c>
-      <c r="S242" s="11" t="s">
+      <c r="S242" s="15" t="s">
         <v>4198</v>
       </c>
-      <c r="T242" s="11" t="s">
+      <c r="T242" s="15" t="s">
         <v>2892</v>
       </c>
-      <c r="U242" s="11" t="s">
+      <c r="U242" s="15" t="s">
         <v>4199</v>
       </c>
-      <c r="V242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W242" s="11" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X242" s="11" t="s">
+      <c r="V242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W242" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X242" s="15" t="s">
         <v>4200</v>
       </c>
-      <c r="Y242" s="11" t="s">
+      <c r="Y242" s="15" t="s">
         <v>4201</v>
       </c>
-      <c r="Z242" s="12" t="s">
+      <c r="Z242" s="16" t="s">
         <v>4202</v>
       </c>
       <c r="AA242" s="11"/>
@@ -36008,7 +36023,7 @@
       <c r="Y243" s="2" t="s">
         <v>4211</v>
       </c>
-      <c r="Z243" s="2" t="s">
+      <c r="Z243" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA243" s="2" t="s">
@@ -36094,7 +36109,7 @@
       <c r="Y244" s="2" t="s">
         <v>4222</v>
       </c>
-      <c r="Z244" s="2" t="s">
+      <c r="Z244" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA244" s="2"/>
@@ -36176,7 +36191,7 @@
       <c r="Y245" s="2" t="s">
         <v>4233</v>
       </c>
-      <c r="Z245" s="2" t="s">
+      <c r="Z245" s="11" t="s">
         <v>4234</v>
       </c>
       <c r="AA245" s="2"/>
@@ -36258,7 +36273,7 @@
       <c r="Y246" s="2" t="s">
         <v>4243</v>
       </c>
-      <c r="Z246" s="2" t="s">
+      <c r="Z246" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA246" s="2" t="s">
@@ -36344,7 +36359,7 @@
       <c r="Y247" s="2" t="s">
         <v>4255</v>
       </c>
-      <c r="Z247" s="2" t="s">
+      <c r="Z247" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA247" s="2" t="s">
@@ -36430,7 +36445,7 @@
       <c r="Y248" s="2" t="s">
         <v>4267</v>
       </c>
-      <c r="Z248" s="2" t="s">
+      <c r="Z248" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA248" s="2"/>
@@ -36512,7 +36527,7 @@
       <c r="Y249" s="2" t="s">
         <v>4278</v>
       </c>
-      <c r="Z249" s="2" t="s">
+      <c r="Z249" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA249" s="2"/>
@@ -36594,7 +36609,7 @@
       <c r="Y250" s="2" t="s">
         <v>4289</v>
       </c>
-      <c r="Z250" s="2" t="s">
+      <c r="Z250" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA250" s="2"/>
@@ -36676,7 +36691,7 @@
       <c r="Y251" s="2" t="s">
         <v>4298</v>
       </c>
-      <c r="Z251" s="2" t="s">
+      <c r="Z251" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA251" s="2"/>
@@ -36758,7 +36773,7 @@
       <c r="Y252" s="2" t="s">
         <v>4310</v>
       </c>
-      <c r="Z252" s="2" t="s">
+      <c r="Z252" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA252" s="2"/>
@@ -36840,7 +36855,7 @@
       <c r="Y253" s="2" t="s">
         <v>4320</v>
       </c>
-      <c r="Z253" s="2" t="s">
+      <c r="Z253" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA253" s="2"/>
@@ -36922,7 +36937,7 @@
       <c r="Y254" s="2" t="s">
         <v>4330</v>
       </c>
-      <c r="Z254" s="2" t="s">
+      <c r="Z254" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA254" s="2"/>
@@ -37004,7 +37019,7 @@
       <c r="Y255" s="2" t="s">
         <v>4338</v>
       </c>
-      <c r="Z255" s="2" t="s">
+      <c r="Z255" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA255" s="2" t="s">
@@ -37090,7 +37105,7 @@
       <c r="Y256" s="2" t="s">
         <v>4353</v>
       </c>
-      <c r="Z256" s="2" t="s">
+      <c r="Z256" s="11" t="s">
         <v>4354</v>
       </c>
       <c r="AA256" s="2"/>
@@ -37172,7 +37187,7 @@
       <c r="Y257" s="2" t="s">
         <v>4363</v>
       </c>
-      <c r="Z257" s="2" t="s">
+      <c r="Z257" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA257" s="2"/>
@@ -37254,7 +37269,7 @@
       <c r="Y258" s="2" t="s">
         <v>4376</v>
       </c>
-      <c r="Z258" s="2" t="s">
+      <c r="Z258" s="11" t="s">
         <v>4377</v>
       </c>
       <c r="AA258" s="2"/>
@@ -37336,7 +37351,7 @@
       <c r="Y259" s="2" t="s">
         <v>4387</v>
       </c>
-      <c r="Z259" s="2" t="s">
+      <c r="Z259" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA259" s="2" t="s">
@@ -37422,7 +37437,7 @@
       <c r="Y260" s="2" t="s">
         <v>4400</v>
       </c>
-      <c r="Z260" s="2" t="s">
+      <c r="Z260" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA260" s="2"/>
@@ -37480,7 +37495,7 @@
       <c r="Q261" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="R261" s="7" t="s">
+      <c r="R261" s="9" t="s">
         <v>4407</v>
       </c>
       <c r="S261" s="2" t="s">
@@ -37504,7 +37519,7 @@
       <c r="Y261" s="2" t="s">
         <v>4409</v>
       </c>
-      <c r="Z261" s="2" t="s">
+      <c r="Z261" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA261" s="2"/>
@@ -37586,7 +37601,7 @@
       <c r="Y262" s="2" t="s">
         <v>4421</v>
       </c>
-      <c r="Z262" s="2" t="s">
+      <c r="Z262" s="11" t="s">
         <v>4422</v>
       </c>
       <c r="AA262" s="2"/>
@@ -37668,7 +37683,7 @@
       <c r="Y263" s="2" t="s">
         <v>4430</v>
       </c>
-      <c r="Z263" s="2" t="s">
+      <c r="Z263" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA263" s="2" t="s">
@@ -37754,7 +37769,7 @@
       <c r="Y264" s="2" t="s">
         <v>4438</v>
       </c>
-      <c r="Z264" s="2" t="s">
+      <c r="Z264" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA264" s="2"/>
@@ -37803,7 +37818,7 @@
       <c r="N265" s="2" t="s">
         <v>4446</v>
       </c>
-      <c r="O265" s="7" t="s">
+      <c r="O265" s="9" t="s">
         <v>4447</v>
       </c>
       <c r="P265" s="2" t="s">
@@ -37836,7 +37851,7 @@
       <c r="Y265" s="2" t="s">
         <v>4452</v>
       </c>
-      <c r="Z265" s="2" t="s">
+      <c r="Z265" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA265" s="2"/>
@@ -37918,7 +37933,7 @@
       <c r="Y266" s="2" t="s">
         <v>4461</v>
       </c>
-      <c r="Z266" s="2" t="s">
+      <c r="Z266" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA266" s="2"/>
@@ -38000,7 +38015,7 @@
       <c r="Y267" s="2" t="s">
         <v>4475</v>
       </c>
-      <c r="Z267" s="2" t="s">
+      <c r="Z267" s="11" t="s">
         <v>4476</v>
       </c>
       <c r="AA267" s="2" t="s">
@@ -38086,7 +38101,7 @@
       <c r="Y268" s="2" t="s">
         <v>4487</v>
       </c>
-      <c r="Z268" s="2" t="s">
+      <c r="Z268" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA268" s="2"/>
@@ -38168,7 +38183,7 @@
       <c r="Y269" s="2" t="s">
         <v>4499</v>
       </c>
-      <c r="Z269" s="2" t="s">
+      <c r="Z269" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA269" s="2" t="s">
@@ -38254,7 +38269,7 @@
       <c r="Y270" s="2" t="s">
         <v>4508</v>
       </c>
-      <c r="Z270" s="2" t="s">
+      <c r="Z270" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA270" s="2" t="s">
@@ -38340,7 +38355,7 @@
       <c r="Y271" s="2" t="s">
         <v>4521</v>
       </c>
-      <c r="Z271" s="2" t="s">
+      <c r="Z271" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA271" s="2"/>
@@ -38422,7 +38437,7 @@
       <c r="Y272" s="2" t="s">
         <v>4532</v>
       </c>
-      <c r="Z272" s="2" t="s">
+      <c r="Z272" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA272" s="2"/>
@@ -38504,7 +38519,7 @@
       <c r="Y273" s="2" t="s">
         <v>4543</v>
       </c>
-      <c r="Z273" s="2" t="s">
+      <c r="Z273" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA273" s="2" t="s">
@@ -38590,7 +38605,7 @@
       <c r="Y274" s="2" t="s">
         <v>4559</v>
       </c>
-      <c r="Z274" s="2" t="s">
+      <c r="Z274" s="11" t="s">
         <v>4560</v>
       </c>
       <c r="AA274" s="2" t="s">
@@ -38652,7 +38667,7 @@
       <c r="Y275" s="2" t="s">
         <v>4567</v>
       </c>
-      <c r="Z275" s="2" t="s">
+      <c r="Z275" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA275" s="2"/>
@@ -38712,7 +38727,7 @@
       <c r="Y276" s="2" t="s">
         <v>4574</v>
       </c>
-      <c r="Z276" s="2" t="s">
+      <c r="Z276" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA276" s="2"/>
@@ -38770,7 +38785,7 @@
       <c r="Y277" s="2" t="s">
         <v>4582</v>
       </c>
-      <c r="Z277" s="2" t="s">
+      <c r="Z277" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA277" s="2"/>
@@ -38830,7 +38845,7 @@
       <c r="Y278" s="2" t="s">
         <v>4591</v>
       </c>
-      <c r="Z278" s="2" t="s">
+      <c r="Z278" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA278" s="2"/>
@@ -38886,7 +38901,7 @@
       <c r="Y279" s="2" t="s">
         <v>4595</v>
       </c>
-      <c r="Z279" s="2" t="s">
+      <c r="Z279" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA279" s="2"/>
@@ -38942,7 +38957,7 @@
       <c r="Y280" s="2" t="s">
         <v>4602</v>
       </c>
-      <c r="Z280" s="2" t="s">
+      <c r="Z280" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA280" s="2"/>
@@ -39002,7 +39017,7 @@
       <c r="Y281" s="2" t="s">
         <v>4611</v>
       </c>
-      <c r="Z281" s="2" t="s">
+      <c r="Z281" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA281" s="2" t="s">
@@ -39064,7 +39079,7 @@
       <c r="Y282" s="2" t="s">
         <v>4621</v>
       </c>
-      <c r="Z282" s="2" t="s">
+      <c r="Z282" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA282" s="2"/>
@@ -39122,7 +39137,7 @@
       <c r="Y283" s="2" t="s">
         <v>4629</v>
       </c>
-      <c r="Z283" s="2" t="s">
+      <c r="Z283" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA283" s="2"/>
@@ -39180,7 +39195,7 @@
       <c r="Y284" s="2" t="s">
         <v>4637</v>
       </c>
-      <c r="Z284" s="2" t="s">
+      <c r="Z284" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA284" s="2"/>
@@ -39240,7 +39255,7 @@
       <c r="Y285" s="2" t="s">
         <v>4646</v>
       </c>
-      <c r="Z285" s="2" t="s">
+      <c r="Z285" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA285" s="2"/>
@@ -39322,7 +39337,7 @@
       <c r="Y286" s="2" t="s">
         <v>4652</v>
       </c>
-      <c r="Z286" s="2" t="s">
+      <c r="Z286" s="11" t="s">
         <v>4653</v>
       </c>
       <c r="AA286" s="2"/>
@@ -39380,7 +39395,7 @@
       <c r="Y287" s="2" t="s">
         <v>4661</v>
       </c>
-      <c r="Z287" s="2" t="s">
+      <c r="Z287" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA287" s="2"/>
@@ -39462,7 +39477,7 @@
       <c r="Y288" s="2" t="s">
         <v>4674</v>
       </c>
-      <c r="Z288" s="2" t="s">
+      <c r="Z288" s="11" t="s">
         <v>4675</v>
       </c>
       <c r="AA288" s="2"/>
@@ -39520,7 +39535,7 @@
       <c r="Q289" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="R289" s="7" t="s">
+      <c r="R289" s="9" t="s">
         <v>4684</v>
       </c>
       <c r="S289" s="2" t="s">
@@ -39544,7 +39559,7 @@
       <c r="Y289" s="2" t="s">
         <v>4686</v>
       </c>
-      <c r="Z289" s="2" t="s">
+      <c r="Z289" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA289" s="2"/>
@@ -39626,7 +39641,7 @@
       <c r="Y290" s="2" t="s">
         <v>4697</v>
       </c>
-      <c r="Z290" s="2" t="s">
+      <c r="Z290" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA290" s="2"/>
@@ -39708,7 +39723,7 @@
       <c r="Y291" s="2" t="s">
         <v>4707</v>
       </c>
-      <c r="Z291" s="2" t="s">
+      <c r="Z291" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA291" s="2"/>
@@ -39790,7 +39805,7 @@
       <c r="Y292" s="2" t="s">
         <v>4716</v>
       </c>
-      <c r="Z292" s="2" t="s">
+      <c r="Z292" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA292" s="2"/>
@@ -39872,7 +39887,7 @@
       <c r="Y293" s="2" t="s">
         <v>4726</v>
       </c>
-      <c r="Z293" s="2" t="s">
+      <c r="Z293" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA293" s="2"/>
@@ -39954,7 +39969,7 @@
       <c r="Y294" s="2" t="s">
         <v>4735</v>
       </c>
-      <c r="Z294" s="2" t="s">
+      <c r="Z294" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA294" s="2"/>
@@ -40036,7 +40051,7 @@
       <c r="Y295" s="2" t="s">
         <v>4745</v>
       </c>
-      <c r="Z295" s="2" t="s">
+      <c r="Z295" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA295" s="2" t="s">
@@ -40122,7 +40137,7 @@
       <c r="Y296" s="2" t="s">
         <v>4757</v>
       </c>
-      <c r="Z296" s="2" t="s">
+      <c r="Z296" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA296" s="2" t="s">
@@ -40208,7 +40223,7 @@
       <c r="Y297" s="2" t="s">
         <v>4768</v>
       </c>
-      <c r="Z297" s="2" t="s">
+      <c r="Z297" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA297" s="2" t="s">
@@ -40294,7 +40309,7 @@
       <c r="Y298" s="2" t="s">
         <v>4782</v>
       </c>
-      <c r="Z298" s="2" t="s">
+      <c r="Z298" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA298" s="2" t="s">
@@ -40380,7 +40395,7 @@
       <c r="Y299" s="2" t="s">
         <v>4796</v>
       </c>
-      <c r="Z299" s="2" t="s">
+      <c r="Z299" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="AA299" s="2"/>
@@ -40462,7 +40477,7 @@
       <c r="Y300" s="2" t="s">
         <v>4807</v>
       </c>
-      <c r="Z300" s="2" t="s">
+      <c r="Z300" s="11" t="s">
         <v>4808</v>
       </c>
       <c r="AA300" s="2" t="s">
@@ -40548,7 +40563,7 @@
       <c r="Y301" s="2" t="s">
         <v>4821</v>
       </c>
-      <c r="Z301" s="2" t="s">
+      <c r="Z301" s="11" t="s">
         <v>4822</v>
       </c>
       <c r="AA301" s="2"/>
@@ -40556,16 +40571,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="2" t="s">
-        <v>2190</v>
+        <v>4823</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>1667</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1667</v>
+        <v>1774</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>1667</v>
@@ -40589,46 +40604,50 @@
         <v>1667</v>
       </c>
       <c r="L302" s="2" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="N302" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
+      <c r="O302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>1667</v>
+      </c>
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
-      <c r="S302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="T302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="U302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="V302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="X302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Y302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Z302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="AA302" s="13" t="s">
-        <v>1667</v>
-      </c>
-      <c r="AB302" s="13" t="s">
+      <c r="S302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="T302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="U302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="V302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="X302" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Y302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Z302" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AA302" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AB302" s="2" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -40651,7 +40670,7 @@
     <col min="1" max="1" style="5" width="26.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="24.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="25.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
@@ -40667,7 +40686,7 @@
       <c r="C1" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>699</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -40690,10 +40709,10 @@
       <c r="C2" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2" t="s">
         <v>706</v>
       </c>
@@ -40711,7 +40730,7 @@
       <c r="C3" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>710</v>
       </c>
       <c r="E3" s="3">
@@ -40734,7 +40753,7 @@
       <c r="C4" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>713</v>
       </c>
       <c r="E4" s="3">
@@ -40757,7 +40776,7 @@
       <c r="C5" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>715</v>
       </c>
       <c r="E5" s="3">
@@ -40780,7 +40799,7 @@
       <c r="C6" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>717</v>
       </c>
       <c r="E6" s="3">
@@ -40803,7 +40822,7 @@
       <c r="C7" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>719</v>
       </c>
       <c r="E7" s="3">
@@ -40826,7 +40845,7 @@
       <c r="C8" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>719</v>
       </c>
       <c r="E8" s="3">
@@ -40849,7 +40868,7 @@
       <c r="C9" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>719</v>
       </c>
       <c r="E9" s="3">
@@ -40872,7 +40891,7 @@
       <c r="C10" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>723</v>
       </c>
       <c r="E10" s="3">
@@ -40895,7 +40914,7 @@
       <c r="C11" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>725</v>
       </c>
       <c r="E11" s="3">
@@ -40918,7 +40937,7 @@
       <c r="C12" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>729</v>
       </c>
       <c r="E12" s="3">
@@ -40941,7 +40960,7 @@
       <c r="C13" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>732</v>
       </c>
       <c r="E13" s="3">
@@ -40964,7 +40983,7 @@
       <c r="C14" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>734</v>
       </c>
       <c r="E14" s="3">
@@ -40987,7 +41006,7 @@
       <c r="C15" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>736</v>
       </c>
       <c r="E15" s="3">
@@ -41010,7 +41029,7 @@
       <c r="C16" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>736</v>
       </c>
       <c r="E16" s="3">
@@ -41033,7 +41052,7 @@
       <c r="C17" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="3">
@@ -41056,7 +41075,7 @@
       <c r="C18" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>741</v>
       </c>
       <c r="E18" s="3">
@@ -41079,7 +41098,7 @@
       <c r="C19" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>743</v>
       </c>
       <c r="E19" s="3">
@@ -41102,7 +41121,7 @@
       <c r="C20" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>743</v>
       </c>
       <c r="E20" s="3">
@@ -41125,7 +41144,7 @@
       <c r="C21" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>743</v>
       </c>
       <c r="E21" s="3">
@@ -41148,7 +41167,7 @@
       <c r="C22" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>747</v>
       </c>
       <c r="E22" s="3">
@@ -41171,7 +41190,7 @@
       <c r="C23" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>749</v>
       </c>
       <c r="E23" s="3">
@@ -41194,7 +41213,7 @@
       <c r="C24" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>751</v>
       </c>
       <c r="E24" s="3">
@@ -41217,7 +41236,7 @@
       <c r="C25" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>753</v>
       </c>
       <c r="E25" s="3">
@@ -41240,7 +41259,7 @@
       <c r="C26" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>753</v>
       </c>
       <c r="E26" s="3">
@@ -41263,7 +41282,7 @@
       <c r="C27" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>756</v>
       </c>
       <c r="E27" s="3">
@@ -41286,7 +41305,7 @@
       <c r="C28" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>758</v>
       </c>
       <c r="E28" s="3">
@@ -41309,7 +41328,7 @@
       <c r="C29" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>758</v>
       </c>
       <c r="E29" s="3">
@@ -41332,7 +41351,7 @@
       <c r="C30" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>761</v>
       </c>
       <c r="E30" s="3">
@@ -41355,7 +41374,7 @@
       <c r="C31" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>763</v>
       </c>
       <c r="E31" s="3">
@@ -41378,7 +41397,7 @@
       <c r="C32" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>765</v>
       </c>
       <c r="E32" s="3">
@@ -41401,7 +41420,7 @@
       <c r="C33" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>767</v>
       </c>
       <c r="E33" s="3">
@@ -41424,7 +41443,7 @@
       <c r="C34" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>767</v>
       </c>
       <c r="E34" s="3">
@@ -41447,7 +41466,7 @@
       <c r="C35" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>767</v>
       </c>
       <c r="E35" s="3">
@@ -41470,7 +41489,7 @@
       <c r="C36" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>771</v>
       </c>
       <c r="E36" s="3">
@@ -41493,7 +41512,7 @@
       <c r="C37" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>773</v>
       </c>
       <c r="E37" s="3">
@@ -41516,7 +41535,7 @@
       <c r="C38" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>776</v>
       </c>
       <c r="E38" s="3">
@@ -41539,7 +41558,7 @@
       <c r="C39" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="6" t="s">
         <v>780</v>
       </c>
       <c r="E39" s="3">
@@ -41562,7 +41581,7 @@
       <c r="C40" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>780</v>
       </c>
       <c r="E40" s="3">
@@ -41585,7 +41604,7 @@
       <c r="C41" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>785</v>
       </c>
       <c r="E41" s="3">
@@ -41608,7 +41627,7 @@
       <c r="C42" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>790</v>
       </c>
       <c r="E42" s="3">
@@ -41631,7 +41650,7 @@
       <c r="C43" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>793</v>
       </c>
       <c r="E43" s="3">
@@ -41654,7 +41673,7 @@
       <c r="C44" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>795</v>
       </c>
       <c r="E44" s="3">
@@ -41677,13 +41696,13 @@
       <c r="C45" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>798</v>
       </c>
       <c r="E45" s="3">
         <v>10586838</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="8" t="s">
         <v>799</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -41700,13 +41719,13 @@
       <c r="C46" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E46" s="3">
         <v>12381254</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -41723,13 +41742,13 @@
       <c r="C47" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>805</v>
       </c>
       <c r="E47" s="3">
         <v>15356412</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -41746,13 +41765,13 @@
       <c r="C48" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>807</v>
       </c>
       <c r="E48" s="3">
         <v>15810638</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -41769,13 +41788,13 @@
       <c r="C49" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>809</v>
       </c>
       <c r="E49" s="3">
         <v>16721764</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -41792,13 +41811,13 @@
       <c r="C50" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="6" t="s">
         <v>811</v>
       </c>
       <c r="E50" s="3">
         <v>18202968</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -41815,13 +41834,13 @@
       <c r="C51" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="6" t="s">
         <v>811</v>
       </c>
       <c r="E51" s="3">
         <v>18202968</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -41838,13 +41857,13 @@
       <c r="C52" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>814</v>
       </c>
       <c r="E52" s="3">
         <v>18203607</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -41861,13 +41880,13 @@
       <c r="C53" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>816</v>
       </c>
       <c r="E53" s="3">
         <v>18393750</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -41884,13 +41903,13 @@
       <c r="C54" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="6" t="s">
         <v>818</v>
       </c>
       <c r="E54" s="3">
         <v>19404202</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -41907,13 +41926,13 @@
       <c r="C55" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>818</v>
       </c>
       <c r="E55" s="3">
         <v>19404202</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -41930,13 +41949,13 @@
       <c r="C56" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="6" t="s">
         <v>821</v>
       </c>
       <c r="E56" s="3">
         <v>20130783</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -41953,13 +41972,13 @@
       <c r="C57" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>821</v>
       </c>
       <c r="E57" s="3">
         <v>20130783</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -41976,13 +41995,13 @@
       <c r="C58" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>824</v>
       </c>
       <c r="E58" s="3">
         <v>23833086</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -41999,13 +42018,13 @@
       <c r="C59" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>826</v>
       </c>
       <c r="E59" s="3">
         <v>25093128</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -42022,13 +42041,13 @@
       <c r="C60" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="6" t="s">
         <v>828</v>
       </c>
       <c r="E60" s="3">
         <v>28203134</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="8" t="s">
         <v>803</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -42045,7 +42064,7 @@
       <c r="C61" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>831</v>
       </c>
       <c r="E61" s="3">
@@ -42068,7 +42087,7 @@
       <c r="C62" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="6" t="s">
         <v>835</v>
       </c>
       <c r="E62" s="3">
@@ -42091,7 +42110,7 @@
       <c r="C63" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>835</v>
       </c>
       <c r="E63" s="3">
@@ -42114,7 +42133,7 @@
       <c r="C64" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>835</v>
       </c>
       <c r="E64" s="3">
@@ -42137,7 +42156,7 @@
       <c r="C65" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>835</v>
       </c>
       <c r="E65" s="3">
@@ -42160,7 +42179,7 @@
       <c r="C66" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>841</v>
       </c>
       <c r="E66" s="3">
@@ -42183,7 +42202,7 @@
       <c r="C67" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="6" t="s">
         <v>844</v>
       </c>
       <c r="E67" s="3">
@@ -42206,7 +42225,7 @@
       <c r="C68" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="6" t="s">
         <v>847</v>
       </c>
       <c r="E68" s="3">
@@ -42229,7 +42248,7 @@
       <c r="C69" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>850</v>
       </c>
       <c r="E69" s="3">
@@ -42252,7 +42271,7 @@
       <c r="C70" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="6" t="s">
         <v>853</v>
       </c>
       <c r="E70" s="3">
@@ -42275,7 +42294,7 @@
       <c r="C71" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>855</v>
       </c>
       <c r="E71" s="3">
@@ -42298,7 +42317,7 @@
       <c r="C72" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="6" t="s">
         <v>858</v>
       </c>
       <c r="E72" s="3">
@@ -42321,7 +42340,7 @@
       <c r="C73" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>858</v>
       </c>
       <c r="E73" s="3">
@@ -42344,7 +42363,7 @@
       <c r="C74" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="6" t="s">
         <v>858</v>
       </c>
       <c r="E74" s="3">
@@ -42367,7 +42386,7 @@
       <c r="C75" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>863</v>
       </c>
       <c r="E75" s="3">
@@ -42390,7 +42409,7 @@
       <c r="C76" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>866</v>
       </c>
       <c r="E76" s="3">
@@ -42413,7 +42432,7 @@
       <c r="C77" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>869</v>
       </c>
       <c r="E77" s="3">
@@ -42436,7 +42455,7 @@
       <c r="C78" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>869</v>
       </c>
       <c r="E78" s="3">
@@ -42459,7 +42478,7 @@
       <c r="C79" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="6" t="s">
         <v>872</v>
       </c>
       <c r="E79" s="3">
@@ -42482,7 +42501,7 @@
       <c r="C80" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="6" t="s">
         <v>874</v>
       </c>
       <c r="E80" s="3">
@@ -42505,7 +42524,7 @@
       <c r="C81" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="6" t="s">
         <v>876</v>
       </c>
       <c r="E81" s="3">
@@ -42528,7 +42547,7 @@
       <c r="C82" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="6" t="s">
         <v>876</v>
       </c>
       <c r="E82" s="3">
@@ -42551,7 +42570,7 @@
       <c r="C83" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="6" t="s">
         <v>879</v>
       </c>
       <c r="E83" s="3">
@@ -42574,7 +42593,7 @@
       <c r="C84" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="6" t="s">
         <v>881</v>
       </c>
       <c r="E84" s="3">
@@ -42597,7 +42616,7 @@
       <c r="C85" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="6" t="s">
         <v>883</v>
       </c>
       <c r="E85" s="3">
@@ -42620,8 +42639,8 @@
       <c r="C86" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="2" t="s">
         <v>867</v>
       </c>
@@ -42637,7 +42656,7 @@
       <c r="C87" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="6" t="s">
         <v>887</v>
       </c>
       <c r="E87" s="3">
@@ -42660,7 +42679,7 @@
       <c r="C88" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="6" t="s">
         <v>887</v>
       </c>
       <c r="E88" s="3">
@@ -42683,7 +42702,7 @@
       <c r="C89" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E89" s="3">
@@ -42706,7 +42725,7 @@
       <c r="C90" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E90" s="3">
@@ -42729,7 +42748,7 @@
       <c r="C91" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E91" s="3">
@@ -42752,7 +42771,7 @@
       <c r="C92" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E92" s="3">
@@ -42775,7 +42794,7 @@
       <c r="C93" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E93" s="3">
@@ -42798,7 +42817,7 @@
       <c r="C94" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E94" s="3">
@@ -42821,7 +42840,7 @@
       <c r="C95" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E95" s="3">
@@ -42844,7 +42863,7 @@
       <c r="C96" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E96" s="3">
@@ -42867,7 +42886,7 @@
       <c r="C97" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E97" s="3">
@@ -42890,7 +42909,7 @@
       <c r="C98" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E98" s="3">
@@ -42913,7 +42932,7 @@
       <c r="C99" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E99" s="3">
@@ -42936,7 +42955,7 @@
       <c r="C100" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E100" s="3">
@@ -42959,7 +42978,7 @@
       <c r="C101" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E101" s="3">
@@ -42982,7 +43001,7 @@
       <c r="C102" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E102" s="3">
@@ -43005,7 +43024,7 @@
       <c r="C103" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E103" s="3">
@@ -43028,7 +43047,7 @@
       <c r="C104" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E104" s="3">
@@ -43051,7 +43070,7 @@
       <c r="C105" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E105" s="3">
@@ -43074,7 +43093,7 @@
       <c r="C106" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="6" t="s">
         <v>891</v>
       </c>
       <c r="E106" s="3">
@@ -43097,7 +43116,7 @@
       <c r="C107" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="6" t="s">
         <v>911</v>
       </c>
       <c r="E107" s="3">
@@ -43120,7 +43139,7 @@
       <c r="C108" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="6" t="s">
         <v>914</v>
       </c>
       <c r="E108" s="3">
@@ -43143,7 +43162,7 @@
       <c r="C109" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="6" t="s">
         <v>917</v>
       </c>
       <c r="E109" s="3">
@@ -43166,7 +43185,7 @@
       <c r="C110" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="6" t="s">
         <v>920</v>
       </c>
       <c r="E110" s="3">
@@ -43189,7 +43208,7 @@
       <c r="C111" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="6" t="s">
         <v>923</v>
       </c>
       <c r="E111" s="3">
@@ -43212,7 +43231,7 @@
       <c r="C112" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="6" t="s">
         <v>926</v>
       </c>
       <c r="E112" s="3">
@@ -43235,7 +43254,7 @@
       <c r="C113" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="6" t="s">
         <v>926</v>
       </c>
       <c r="E113" s="3">
@@ -43258,7 +43277,7 @@
       <c r="C114" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="6" t="s">
         <v>926</v>
       </c>
       <c r="E114" s="3">
@@ -43281,7 +43300,7 @@
       <c r="C115" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="6" t="s">
         <v>926</v>
       </c>
       <c r="E115" s="3">
@@ -43304,7 +43323,7 @@
       <c r="C116" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="6" t="s">
         <v>926</v>
       </c>
       <c r="E116" s="3">
@@ -43327,7 +43346,7 @@
       <c r="C117" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="6" t="s">
         <v>933</v>
       </c>
       <c r="E117" s="3">
@@ -43350,7 +43369,7 @@
       <c r="C118" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="6" t="s">
         <v>936</v>
       </c>
       <c r="E118" s="3">
@@ -43373,7 +43392,7 @@
       <c r="C119" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="6" t="s">
         <v>938</v>
       </c>
       <c r="E119" s="3">
@@ -43396,7 +43415,7 @@
       <c r="C120" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="6" t="s">
         <v>940</v>
       </c>
       <c r="E120" s="3">
@@ -43419,7 +43438,7 @@
       <c r="C121" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="6" t="s">
         <v>942</v>
       </c>
       <c r="E121" s="3">
@@ -43442,7 +43461,7 @@
       <c r="C122" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="6" t="s">
         <v>945</v>
       </c>
       <c r="E122" s="3">
@@ -43465,7 +43484,7 @@
       <c r="C123" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="6" t="s">
         <v>948</v>
       </c>
       <c r="E123" s="3">
@@ -43488,7 +43507,7 @@
       <c r="C124" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="6" t="s">
         <v>950</v>
       </c>
       <c r="E124" s="3">
@@ -43511,7 +43530,7 @@
       <c r="C125" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="6" t="s">
         <v>953</v>
       </c>
       <c r="E125" s="3">
@@ -43534,7 +43553,7 @@
       <c r="C126" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="6" t="s">
         <v>957</v>
       </c>
       <c r="E126" s="3">
@@ -43557,7 +43576,7 @@
       <c r="C127" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="6" t="s">
         <v>961</v>
       </c>
       <c r="E127" s="3">
@@ -43580,7 +43599,7 @@
       <c r="C128" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="6" t="s">
         <v>964</v>
       </c>
       <c r="E128" s="3">
@@ -43603,7 +43622,7 @@
       <c r="C129" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="6" t="s">
         <v>966</v>
       </c>
       <c r="E129" s="3">
@@ -43626,7 +43645,7 @@
       <c r="C130" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E130" s="3">
@@ -43649,7 +43668,7 @@
       <c r="C131" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E131" s="3">
@@ -43672,7 +43691,7 @@
       <c r="C132" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E132" s="3">
@@ -43695,7 +43714,7 @@
       <c r="C133" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E133" s="3">
@@ -43718,7 +43737,7 @@
       <c r="C134" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E134" s="3">
@@ -43741,7 +43760,7 @@
       <c r="C135" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E135" s="3">
@@ -43764,7 +43783,7 @@
       <c r="C136" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E136" s="3">
@@ -43787,7 +43806,7 @@
       <c r="C137" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E137" s="3">
@@ -43810,7 +43829,7 @@
       <c r="C138" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E138" s="3">
@@ -43833,7 +43852,7 @@
       <c r="C139" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E139" s="3">
@@ -43856,7 +43875,7 @@
       <c r="C140" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="6" t="s">
         <v>981</v>
       </c>
       <c r="E140" s="3">
@@ -43879,7 +43898,7 @@
       <c r="C141" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="6" t="s">
         <v>983</v>
       </c>
       <c r="E141" s="3">
@@ -43902,7 +43921,7 @@
       <c r="C142" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="6" t="s">
         <v>985</v>
       </c>
       <c r="E142" s="3">
@@ -43925,13 +43944,13 @@
       <c r="C143" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="6" t="s">
         <v>988</v>
       </c>
       <c r="E143" s="3">
         <v>6779941</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="8" t="s">
         <v>989</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -43948,7 +43967,7 @@
       <c r="C144" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="6" t="s">
         <v>992</v>
       </c>
       <c r="E144" s="3">
@@ -43971,7 +43990,7 @@
       <c r="C145" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="6" t="s">
         <v>992</v>
       </c>
       <c r="E145" s="3">
@@ -43994,7 +44013,7 @@
       <c r="C146" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="6" t="s">
         <v>992</v>
       </c>
       <c r="E146" s="3">
@@ -44017,7 +44036,7 @@
       <c r="C147" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="6" t="s">
         <v>998</v>
       </c>
       <c r="E147" s="3">
@@ -44040,7 +44059,7 @@
       <c r="C148" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="E148" s="3">
@@ -44063,7 +44082,7 @@
       <c r="C149" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="6" t="s">
         <v>1005</v>
       </c>
       <c r="E149" s="3">
@@ -44086,7 +44105,7 @@
       <c r="C150" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="6" t="s">
         <v>1008</v>
       </c>
       <c r="E150" s="3">
@@ -44109,7 +44128,7 @@
       <c r="C151" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="6" t="s">
         <v>1011</v>
       </c>
       <c r="E151" s="3">
@@ -44132,7 +44151,7 @@
       <c r="C152" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="6" t="s">
         <v>1013</v>
       </c>
       <c r="E152" s="3">
@@ -44155,7 +44174,7 @@
       <c r="C153" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="6" t="s">
         <v>1013</v>
       </c>
       <c r="E153" s="3">
@@ -44178,7 +44197,7 @@
       <c r="C154" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="6" t="s">
         <v>1013</v>
       </c>
       <c r="E154" s="3">
@@ -44201,7 +44220,7 @@
       <c r="C155" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="6" t="s">
         <v>1017</v>
       </c>
       <c r="E155" s="3">
@@ -44224,7 +44243,7 @@
       <c r="C156" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="6" t="s">
         <v>1019</v>
       </c>
       <c r="E156" s="3">
@@ -44247,7 +44266,7 @@
       <c r="C157" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="6" t="s">
         <v>1021</v>
       </c>
       <c r="E157" s="3">
@@ -44270,7 +44289,7 @@
       <c r="C158" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="E158" s="3">
@@ -44293,7 +44312,7 @@
       <c r="C159" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="E159" s="3">
@@ -44316,7 +44335,7 @@
       <c r="C160" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E160" s="3">
@@ -44339,7 +44358,7 @@
       <c r="C161" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E161" s="3">
@@ -44362,7 +44381,7 @@
       <c r="C162" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E162" s="3">
@@ -44385,7 +44404,7 @@
       <c r="C163" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E163" s="3">
@@ -44408,7 +44427,7 @@
       <c r="C164" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E164" s="3">
@@ -44431,7 +44450,7 @@
       <c r="C165" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E165" s="3">
@@ -44454,7 +44473,7 @@
       <c r="C166" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="E166" s="3">
@@ -44477,7 +44496,7 @@
       <c r="C167" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="6" t="s">
         <v>1034</v>
       </c>
       <c r="E167" s="3">
@@ -44500,7 +44519,7 @@
       <c r="C168" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="6" t="s">
         <v>1036</v>
       </c>
       <c r="E168" s="3">
@@ -44523,7 +44542,7 @@
       <c r="C169" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="6" t="s">
         <v>1036</v>
       </c>
       <c r="E169" s="3">
@@ -44546,7 +44565,7 @@
       <c r="C170" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="6" t="s">
         <v>1039</v>
       </c>
       <c r="E170" s="3">
@@ -44569,7 +44588,7 @@
       <c r="C171" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="6" t="s">
         <v>1041</v>
       </c>
       <c r="E171" s="3">
@@ -44592,7 +44611,7 @@
       <c r="C172" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="6" t="s">
         <v>1041</v>
       </c>
       <c r="E172" s="3">
@@ -44615,7 +44634,7 @@
       <c r="C173" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="6" t="s">
         <v>1044</v>
       </c>
       <c r="E173" s="3">
@@ -44638,7 +44657,7 @@
       <c r="C174" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="6" t="s">
         <v>1046</v>
       </c>
       <c r="E174" s="3">
@@ -44661,7 +44680,7 @@
       <c r="C175" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="6" t="s">
         <v>1048</v>
       </c>
       <c r="E175" s="3">
@@ -44684,7 +44703,7 @@
       <c r="C176" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="6" t="s">
         <v>1050</v>
       </c>
       <c r="E176" s="3">
@@ -44707,7 +44726,7 @@
       <c r="C177" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="6" t="s">
         <v>1052</v>
       </c>
       <c r="E177" s="3">
@@ -44730,7 +44749,7 @@
       <c r="C178" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="6" t="s">
         <v>1052</v>
       </c>
       <c r="E178" s="3">
@@ -44753,7 +44772,7 @@
       <c r="C179" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="6" t="s">
         <v>1056</v>
       </c>
       <c r="E179" s="3">
@@ -44776,7 +44795,7 @@
       <c r="C180" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="6" t="s">
         <v>1059</v>
       </c>
       <c r="E180" s="3">
@@ -44799,7 +44818,7 @@
       <c r="C181" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="6" t="s">
         <v>1059</v>
       </c>
       <c r="E181" s="3">
@@ -44822,7 +44841,7 @@
       <c r="C182" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="6" t="s">
         <v>1059</v>
       </c>
       <c r="E182" s="3">
@@ -44845,7 +44864,7 @@
       <c r="C183" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="6" t="s">
         <v>1063</v>
       </c>
       <c r="E183" s="3">
@@ -44868,7 +44887,7 @@
       <c r="C184" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="6" t="s">
         <v>1063</v>
       </c>
       <c r="E184" s="3">
@@ -44891,13 +44910,13 @@
       <c r="C185" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="6" t="s">
         <v>1067</v>
       </c>
       <c r="E185" s="3">
         <v>10535888</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F185" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G185" s="2" t="s">
@@ -44914,13 +44933,13 @@
       <c r="C186" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="6" t="s">
         <v>1070</v>
       </c>
       <c r="E186" s="3">
         <v>11826672</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F186" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G186" s="2" t="s">
@@ -44937,13 +44956,13 @@
       <c r="C187" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="6" t="s">
         <v>1072</v>
       </c>
       <c r="E187" s="3">
         <v>12795472</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="F187" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G187" s="2" t="s">
@@ -44960,13 +44979,13 @@
       <c r="C188" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="6" t="s">
         <v>1072</v>
       </c>
       <c r="E188" s="3">
         <v>12795472</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="F188" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G188" s="2" t="s">
@@ -44983,13 +45002,13 @@
       <c r="C189" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="6" t="s">
         <v>1075</v>
       </c>
       <c r="E189" s="3">
         <v>15073964</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="F189" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G189" s="2" t="s">
@@ -45006,13 +45025,13 @@
       <c r="C190" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="6" t="s">
         <v>1075</v>
       </c>
       <c r="E190" s="3">
         <v>15073964</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="F190" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G190" s="2" t="s">
@@ -45029,13 +45048,13 @@
       <c r="C191" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="6" t="s">
         <v>1078</v>
       </c>
       <c r="E191" s="3">
         <v>16645871</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F191" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G191" s="2" t="s">
@@ -45052,13 +45071,13 @@
       <c r="C192" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="6" t="s">
         <v>1080</v>
       </c>
       <c r="E192" s="3">
         <v>18720945</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F192" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G192" s="2" t="s">
@@ -45075,13 +45094,13 @@
       <c r="C193" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E193" s="3">
         <v>19397968</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F193" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G193" s="2" t="s">
@@ -45098,13 +45117,13 @@
       <c r="C194" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="6" t="s">
         <v>1084</v>
       </c>
       <c r="E194" s="3">
         <v>2291149</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="F194" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="G194" s="2" t="s">
@@ -45121,7 +45140,7 @@
       <c r="C195" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="6" t="s">
         <v>1087</v>
       </c>
       <c r="E195" s="3">
@@ -45144,7 +45163,7 @@
       <c r="C196" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="6" t="s">
         <v>1090</v>
       </c>
       <c r="E196" s="3">
@@ -45167,7 +45186,7 @@
       <c r="C197" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="6" t="s">
         <v>1092</v>
       </c>
       <c r="E197" s="3">
@@ -45190,7 +45209,7 @@
       <c r="C198" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="E198" s="3">
@@ -45213,7 +45232,7 @@
       <c r="C199" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="6" t="s">
         <v>1096</v>
       </c>
       <c r="E199" s="3">
@@ -45236,7 +45255,7 @@
       <c r="C200" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="E200" s="3">
@@ -45259,7 +45278,7 @@
       <c r="C201" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="E201" s="3">
@@ -45282,7 +45301,7 @@
       <c r="C202" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="E202" s="3">
@@ -45305,7 +45324,7 @@
       <c r="C203" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="E203" s="3">
@@ -45328,7 +45347,7 @@
       <c r="C204" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="E204" s="3">
@@ -45351,7 +45370,7 @@
       <c r="C205" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="E205" s="3">
@@ -45374,7 +45393,7 @@
       <c r="C206" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="6" t="s">
         <v>1106</v>
       </c>
       <c r="E206" s="3">
@@ -45397,7 +45416,7 @@
       <c r="C207" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="6" t="s">
         <v>1108</v>
       </c>
       <c r="E207" s="3">
@@ -45420,7 +45439,7 @@
       <c r="C208" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="E208" s="3">
@@ -45443,7 +45462,7 @@
       <c r="C209" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="6" t="s">
         <v>1112</v>
       </c>
       <c r="E209" s="3">
@@ -45466,7 +45485,7 @@
       <c r="C210" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="6" t="s">
         <v>1114</v>
       </c>
       <c r="E210" s="3">
@@ -45489,7 +45508,7 @@
       <c r="C211" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="E211" s="3">
@@ -45512,7 +45531,7 @@
       <c r="C212" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="E212" s="3">
@@ -45535,7 +45554,7 @@
       <c r="C213" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="E213" s="3">
@@ -45558,7 +45577,7 @@
       <c r="C214" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="6" t="s">
         <v>1120</v>
       </c>
       <c r="E214" s="3">
@@ -45581,7 +45600,7 @@
       <c r="C215" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="6" t="s">
         <v>1122</v>
       </c>
       <c r="E215" s="3">
@@ -45604,7 +45623,7 @@
       <c r="C216" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="6" t="s">
         <v>1124</v>
       </c>
       <c r="E216" s="3">
@@ -45627,7 +45646,7 @@
       <c r="C217" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="6" t="s">
         <v>1126</v>
       </c>
       <c r="E217" s="3">
@@ -45650,7 +45669,7 @@
       <c r="C218" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="6" t="s">
         <v>1129</v>
       </c>
       <c r="E218" s="3">
@@ -45673,7 +45692,7 @@
       <c r="C219" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="6" t="s">
         <v>1129</v>
       </c>
       <c r="E219" s="3">
@@ -45696,7 +45715,7 @@
       <c r="C220" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="6" t="s">
         <v>1133</v>
       </c>
       <c r="E220" s="3">
@@ -45719,7 +45738,7 @@
       <c r="C221" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="6" t="s">
         <v>1135</v>
       </c>
       <c r="E221" s="3">
@@ -45742,7 +45761,7 @@
       <c r="C222" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="6" t="s">
         <v>1137</v>
       </c>
       <c r="E222" s="3">
@@ -45765,7 +45784,7 @@
       <c r="C223" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E223" s="3">
@@ -45788,7 +45807,7 @@
       <c r="C224" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E224" s="3">
@@ -45811,7 +45830,7 @@
       <c r="C225" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E225" s="3">
@@ -45834,7 +45853,7 @@
       <c r="C226" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E226" s="3">
@@ -45857,7 +45876,7 @@
       <c r="C227" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E227" s="3">
@@ -45880,7 +45899,7 @@
       <c r="C228" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="6" t="s">
         <v>1146</v>
       </c>
       <c r="E228" s="3">
@@ -45903,7 +45922,7 @@
       <c r="C229" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="6" t="s">
         <v>1150</v>
       </c>
       <c r="E229" s="3">
@@ -45926,7 +45945,7 @@
       <c r="C230" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="6" t="s">
         <v>1150</v>
       </c>
       <c r="E230" s="3">
@@ -45949,7 +45968,7 @@
       <c r="C231" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="6" t="s">
         <v>1155</v>
       </c>
       <c r="E231" s="3">
@@ -45972,7 +45991,7 @@
       <c r="C232" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="6" t="s">
         <v>1158</v>
       </c>
       <c r="E232" s="3">
@@ -45995,7 +46014,7 @@
       <c r="C233" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="6" t="s">
         <v>1158</v>
       </c>
       <c r="E233" s="3">
@@ -46018,7 +46037,7 @@
       <c r="C234" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="6" t="s">
         <v>1158</v>
       </c>
       <c r="E234" s="3">
@@ -46041,7 +46060,7 @@
       <c r="C235" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="6" t="s">
         <v>1162</v>
       </c>
       <c r="E235" s="3">
@@ -46064,7 +46083,7 @@
       <c r="C236" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="6" t="s">
         <v>1164</v>
       </c>
       <c r="E236" s="3">
@@ -46087,7 +46106,7 @@
       <c r="C237" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E237" s="3">
@@ -46110,7 +46129,7 @@
       <c r="C238" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="E238" s="3">
@@ -46133,7 +46152,7 @@
       <c r="C239" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="6" t="s">
         <v>1170</v>
       </c>
       <c r="E239" s="3">
@@ -46156,7 +46175,7 @@
       <c r="C240" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="6" t="s">
         <v>1172</v>
       </c>
       <c r="E240" s="3">
@@ -46179,7 +46198,7 @@
       <c r="C241" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="6" t="s">
         <v>1174</v>
       </c>
       <c r="E241" s="3">
@@ -46202,7 +46221,7 @@
       <c r="C242" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="6" t="s">
         <v>1176</v>
       </c>
       <c r="E242" s="3">
@@ -46225,7 +46244,7 @@
       <c r="C243" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="6" t="s">
         <v>1178</v>
       </c>
       <c r="E243" s="3">
@@ -46248,7 +46267,7 @@
       <c r="C244" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="6" t="s">
         <v>1180</v>
       </c>
       <c r="E244" s="3">
@@ -46271,7 +46290,7 @@
       <c r="C245" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="6" t="s">
         <v>866</v>
       </c>
       <c r="E245" s="3">
@@ -46294,7 +46313,7 @@
       <c r="C246" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="6" t="s">
         <v>1185</v>
       </c>
       <c r="E246" s="3">
@@ -46317,7 +46336,7 @@
       <c r="C247" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E247" s="3">
@@ -46340,7 +46359,7 @@
       <c r="C248" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E248" s="3">
@@ -46363,7 +46382,7 @@
       <c r="C249" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E249" s="3">
@@ -46386,7 +46405,7 @@
       <c r="C250" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E250" s="3">
@@ -46409,7 +46428,7 @@
       <c r="C251" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E251" s="3">
@@ -46432,7 +46451,7 @@
       <c r="C252" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E252" s="3">
@@ -46455,7 +46474,7 @@
       <c r="C253" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="E253" s="3">
@@ -46478,7 +46497,7 @@
       <c r="C254" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="6" t="s">
         <v>1195</v>
       </c>
       <c r="E254" s="3">
@@ -46501,7 +46520,7 @@
       <c r="C255" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="6" t="s">
         <v>1195</v>
       </c>
       <c r="E255" s="3">
@@ -46524,7 +46543,7 @@
       <c r="C256" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="6" t="s">
         <v>1195</v>
       </c>
       <c r="E256" s="3">
@@ -46547,7 +46566,7 @@
       <c r="C257" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="6" t="s">
         <v>1199</v>
       </c>
       <c r="E257" s="3">
@@ -46570,7 +46589,7 @@
       <c r="C258" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="6" t="s">
         <v>1199</v>
       </c>
       <c r="E258" s="3">
@@ -46593,7 +46612,7 @@
       <c r="C259" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="6" t="s">
         <v>1199</v>
       </c>
       <c r="E259" s="3">
@@ -46616,7 +46635,7 @@
       <c r="C260" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="6" t="s">
         <v>1203</v>
       </c>
       <c r="E260" s="3">
@@ -46639,7 +46658,7 @@
       <c r="C261" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="6" t="s">
         <v>1206</v>
       </c>
       <c r="E261" s="3">
@@ -46662,7 +46681,7 @@
       <c r="C262" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="6" t="s">
         <v>1209</v>
       </c>
       <c r="E262" s="3">
@@ -46685,7 +46704,7 @@
       <c r="C263" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="6" t="s">
         <v>1212</v>
       </c>
       <c r="E263" s="3">
@@ -46708,7 +46727,7 @@
       <c r="C264" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="6" t="s">
         <v>1215</v>
       </c>
       <c r="E264" s="3">
@@ -46731,7 +46750,7 @@
       <c r="C265" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="E265" s="3">
@@ -46754,7 +46773,7 @@
       <c r="C266" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="6" t="s">
         <v>1219</v>
       </c>
       <c r="E266" s="3">
@@ -46777,7 +46796,7 @@
       <c r="C267" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E267" s="3">
@@ -46800,7 +46819,7 @@
       <c r="C268" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E268" s="3">
@@ -46823,7 +46842,7 @@
       <c r="C269" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="6" t="s">
         <v>1224</v>
       </c>
       <c r="E269" s="3">
@@ -46846,7 +46865,7 @@
       <c r="C270" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="6" t="s">
         <v>1226</v>
       </c>
       <c r="E270" s="3">
@@ -46869,7 +46888,7 @@
       <c r="C271" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="E271" s="3">
@@ -46892,7 +46911,7 @@
       <c r="C272" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E272" s="3">
@@ -46915,7 +46934,7 @@
       <c r="C273" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E273" s="3">
@@ -46938,7 +46957,7 @@
       <c r="C274" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E274" s="3">
@@ -46961,7 +46980,7 @@
       <c r="C275" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E275" s="3">
@@ -46984,7 +47003,7 @@
       <c r="C276" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E276" s="3">
@@ -47007,7 +47026,7 @@
       <c r="C277" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E277" s="3">
@@ -47030,7 +47049,7 @@
       <c r="C278" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E278" s="3">
@@ -47053,7 +47072,7 @@
       <c r="C279" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E279" s="3">
@@ -47076,7 +47095,7 @@
       <c r="C280" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E280" s="3">
@@ -47099,7 +47118,7 @@
       <c r="C281" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E281" s="3">
@@ -47122,7 +47141,7 @@
       <c r="C282" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E282" s="3">
@@ -47145,7 +47164,7 @@
       <c r="C283" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E283" s="3">
@@ -47168,7 +47187,7 @@
       <c r="C284" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E284" s="3">
@@ -47191,7 +47210,7 @@
       <c r="C285" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E285" s="3">
@@ -47214,7 +47233,7 @@
       <c r="C286" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E286" s="3">
@@ -47237,7 +47256,7 @@
       <c r="C287" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E287" s="3">
@@ -47260,7 +47279,7 @@
       <c r="C288" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E288" s="3">
@@ -47283,7 +47302,7 @@
       <c r="C289" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E289" s="3">
@@ -47306,7 +47325,7 @@
       <c r="C290" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E290" s="3">
@@ -47329,7 +47348,7 @@
       <c r="C291" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E291" s="3">
@@ -47352,7 +47371,7 @@
       <c r="C292" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E292" s="3">
@@ -47375,7 +47394,7 @@
       <c r="C293" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E293" s="3">
@@ -47398,7 +47417,7 @@
       <c r="C294" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E294" s="3">
@@ -47421,7 +47440,7 @@
       <c r="C295" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E295" s="3">
@@ -47444,7 +47463,7 @@
       <c r="C296" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E296" s="3">
@@ -47467,7 +47486,7 @@
       <c r="C297" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E297" s="3">
@@ -47490,7 +47509,7 @@
       <c r="C298" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E298" s="3">
@@ -47513,7 +47532,7 @@
       <c r="C299" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E299" s="3">
@@ -47536,7 +47555,7 @@
       <c r="C300" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E300" s="3">
@@ -47559,7 +47578,7 @@
       <c r="C301" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" s="6" t="s">
         <v>1260</v>
       </c>
       <c r="E301" s="3">
@@ -47582,7 +47601,7 @@
       <c r="C302" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="6" t="s">
         <v>1262</v>
       </c>
       <c r="E302" s="3">
@@ -47605,7 +47624,7 @@
       <c r="C303" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="6" t="s">
         <v>1265</v>
       </c>
       <c r="E303" s="3">
@@ -47628,7 +47647,7 @@
       <c r="C304" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="D304" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E304" s="3">
@@ -47651,7 +47670,7 @@
       <c r="C305" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="D305" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E305" s="3">
@@ -47674,7 +47693,7 @@
       <c r="C306" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E306" s="3">
@@ -47697,7 +47716,7 @@
       <c r="C307" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E307" s="3">
@@ -47720,7 +47739,7 @@
       <c r="C308" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="D308" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E308" s="3">
@@ -47743,7 +47762,7 @@
       <c r="C309" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E309" s="3">
@@ -47766,7 +47785,7 @@
       <c r="C310" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D310" s="6" t="s">
         <v>1268</v>
       </c>
       <c r="E310" s="3">
@@ -47789,7 +47808,7 @@
       <c r="C311" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E311" s="3">
@@ -47812,7 +47831,7 @@
       <c r="C312" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E312" s="3">
@@ -47835,7 +47854,7 @@
       <c r="C313" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D313" s="2" t="s">
+      <c r="D313" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E313" s="3">
@@ -47858,7 +47877,7 @@
       <c r="C314" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D314" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E314" s="3">
@@ -47881,7 +47900,7 @@
       <c r="C315" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D315" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E315" s="3">
@@ -47904,7 +47923,7 @@
       <c r="C316" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="D316" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E316" s="3">
@@ -47927,7 +47946,7 @@
       <c r="C317" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D317" s="2" t="s">
+      <c r="D317" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E317" s="3">
@@ -47950,7 +47969,7 @@
       <c r="C318" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D318" s="2" t="s">
+      <c r="D318" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E318" s="3">
@@ -47973,7 +47992,7 @@
       <c r="C319" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D319" s="2" t="s">
+      <c r="D319" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E319" s="3">
@@ -47996,7 +48015,7 @@
       <c r="C320" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E320" s="3">
@@ -48019,7 +48038,7 @@
       <c r="C321" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D321" s="2" t="s">
+      <c r="D321" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E321" s="3">
@@ -48042,7 +48061,7 @@
       <c r="C322" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D322" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="E322" s="3">
@@ -48065,7 +48084,7 @@
       <c r="C323" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D323" s="2" t="s">
+      <c r="D323" s="6" t="s">
         <v>1290</v>
       </c>
       <c r="E323" s="3">
@@ -48088,7 +48107,7 @@
       <c r="C324" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D324" s="6" t="s">
         <v>1292</v>
       </c>
       <c r="E324" s="3">
@@ -48111,7 +48130,7 @@
       <c r="C325" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" s="6" t="s">
         <v>1294</v>
       </c>
       <c r="E325" s="3">
@@ -48134,7 +48153,7 @@
       <c r="C326" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" s="6" t="s">
         <v>1294</v>
       </c>
       <c r="E326" s="3">
@@ -48157,7 +48176,7 @@
       <c r="C327" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="6" t="s">
         <v>1298</v>
       </c>
       <c r="E327" s="3">
@@ -48180,7 +48199,7 @@
       <c r="C328" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D328" s="6" t="s">
         <v>1301</v>
       </c>
       <c r="E328" s="3">
@@ -48203,7 +48222,7 @@
       <c r="C329" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" s="6" t="s">
         <v>1303</v>
       </c>
       <c r="E329" s="3">
@@ -48226,7 +48245,7 @@
       <c r="C330" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D330" s="2" t="s">
+      <c r="D330" s="6" t="s">
         <v>1306</v>
       </c>
       <c r="E330" s="3">
@@ -48249,7 +48268,7 @@
       <c r="C331" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="D331" s="6" t="s">
         <v>1309</v>
       </c>
       <c r="E331" s="3">
@@ -48272,7 +48291,7 @@
       <c r="C332" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D332" s="6" t="s">
         <v>1312</v>
       </c>
       <c r="E332" s="3">
@@ -48295,7 +48314,7 @@
       <c r="C333" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="6" t="s">
         <v>1262</v>
       </c>
       <c r="E333" s="3">
@@ -48318,13 +48337,13 @@
       <c r="C334" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D334" s="6" t="s">
         <v>1317</v>
       </c>
       <c r="E334" s="3">
         <v>17014576</v>
       </c>
-      <c r="F334" s="6" t="s">
+      <c r="F334" s="8" t="s">
         <v>1318</v>
       </c>
       <c r="G334" s="2" t="s">
@@ -48341,7 +48360,7 @@
       <c r="C335" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D335" s="6" t="s">
         <v>1321</v>
       </c>
       <c r="E335" s="3">
@@ -48364,7 +48383,7 @@
       <c r="C336" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D336" s="6" t="s">
         <v>1321</v>
       </c>
       <c r="E336" s="3">
@@ -48387,7 +48406,7 @@
       <c r="C337" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D337" s="6" t="s">
         <v>1321</v>
       </c>
       <c r="E337" s="3">
@@ -48410,7 +48429,7 @@
       <c r="C338" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D338" s="2" t="s">
+      <c r="D338" s="6" t="s">
         <v>1321</v>
       </c>
       <c r="E338" s="3">
@@ -48433,7 +48452,7 @@
       <c r="C339" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D339" s="6" t="s">
         <v>1328</v>
       </c>
       <c r="E339" s="3">
@@ -48456,7 +48475,7 @@
       <c r="C340" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D340" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E340" s="3">
@@ -48479,7 +48498,7 @@
       <c r="C341" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D341" s="2" t="s">
+      <c r="D341" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E341" s="3">
@@ -48502,7 +48521,7 @@
       <c r="C342" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D342" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E342" s="3">
@@ -48525,7 +48544,7 @@
       <c r="C343" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D343" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E343" s="3">
@@ -48548,7 +48567,7 @@
       <c r="C344" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D344" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E344" s="3">
@@ -48571,7 +48590,7 @@
       <c r="C345" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D345" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E345" s="3">
@@ -48594,7 +48613,7 @@
       <c r="C346" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D346" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E346" s="3">
@@ -48617,7 +48636,7 @@
       <c r="C347" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D347" s="2" t="s">
+      <c r="D347" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E347" s="3">
@@ -48640,7 +48659,7 @@
       <c r="C348" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D348" s="2" t="s">
+      <c r="D348" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E348" s="3">
@@ -48663,7 +48682,7 @@
       <c r="C349" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E349" s="3">
@@ -48686,7 +48705,7 @@
       <c r="C350" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D350" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E350" s="3">
@@ -48709,7 +48728,7 @@
       <c r="C351" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E351" s="3">
@@ -48732,7 +48751,7 @@
       <c r="C352" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D352" s="2" t="s">
+      <c r="D352" s="6" t="s">
         <v>1344</v>
       </c>
       <c r="E352" s="3">
@@ -48755,7 +48774,7 @@
       <c r="C353" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D353" s="2" t="s">
+      <c r="D353" s="6" t="s">
         <v>1347</v>
       </c>
       <c r="E353" s="3">
@@ -48778,7 +48797,7 @@
       <c r="C354" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D354" s="6" t="s">
         <v>1350</v>
       </c>
       <c r="E354" s="3">
@@ -48801,7 +48820,7 @@
       <c r="C355" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D355" s="2" t="s">
+      <c r="D355" s="6" t="s">
         <v>1350</v>
       </c>
       <c r="E355" s="3">
@@ -48824,7 +48843,7 @@
       <c r="C356" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D356" s="2" t="s">
+      <c r="D356" s="6" t="s">
         <v>1353</v>
       </c>
       <c r="E356" s="3">
@@ -48847,7 +48866,7 @@
       <c r="C357" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D357" s="6" t="s">
         <v>1355</v>
       </c>
       <c r="E357" s="3">
@@ -48870,7 +48889,7 @@
       <c r="C358" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D358" s="6" t="s">
         <v>1357</v>
       </c>
       <c r="E358" s="3">
@@ -48893,7 +48912,7 @@
       <c r="C359" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D359" s="2" t="s">
+      <c r="D359" s="6" t="s">
         <v>1359</v>
       </c>
       <c r="E359" s="3">
@@ -48916,7 +48935,7 @@
       <c r="C360" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D360" s="6" t="s">
         <v>1361</v>
       </c>
       <c r="E360" s="3">
@@ -48939,7 +48958,7 @@
       <c r="C361" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" s="6" t="s">
         <v>1364</v>
       </c>
       <c r="E361" s="3">
@@ -48962,7 +48981,7 @@
       <c r="C362" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" s="6" t="s">
         <v>1368</v>
       </c>
       <c r="E362" s="3">
@@ -48985,7 +49004,7 @@
       <c r="C363" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D363" s="6" t="s">
         <v>1372</v>
       </c>
       <c r="E363" s="3">
@@ -49008,7 +49027,7 @@
       <c r="C364" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D364" s="6" t="s">
         <v>1375</v>
       </c>
       <c r="E364" s="3">
@@ -49031,7 +49050,7 @@
       <c r="C365" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" s="6" t="s">
         <v>1377</v>
       </c>
       <c r="E365" s="3">
@@ -49054,7 +49073,7 @@
       <c r="C366" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D366" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E366" s="3">
@@ -49077,7 +49096,7 @@
       <c r="C367" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D367" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E367" s="3">
@@ -49100,7 +49119,7 @@
       <c r="C368" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D368" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E368" s="3">
@@ -49123,7 +49142,7 @@
       <c r="C369" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D369" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E369" s="3">
@@ -49146,7 +49165,7 @@
       <c r="C370" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D370" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E370" s="3">
@@ -49169,7 +49188,7 @@
       <c r="C371" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D371" s="2" t="s">
+      <c r="D371" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E371" s="3">
@@ -49192,7 +49211,7 @@
       <c r="C372" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D372" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E372" s="3">
@@ -49215,7 +49234,7 @@
       <c r="C373" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E373" s="3">
@@ -49238,7 +49257,7 @@
       <c r="C374" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D374" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E374" s="3">
@@ -49261,7 +49280,7 @@
       <c r="C375" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D375" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E375" s="3">
@@ -49284,7 +49303,7 @@
       <c r="C376" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D376" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E376" s="3">
@@ -49307,7 +49326,7 @@
       <c r="C377" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E377" s="3">
@@ -49330,7 +49349,7 @@
       <c r="C378" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E378" s="3">
@@ -49353,7 +49372,7 @@
       <c r="C379" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E379" s="3">
@@ -49376,7 +49395,7 @@
       <c r="C380" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E380" s="3">
@@ -49399,7 +49418,7 @@
       <c r="C381" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D381" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E381" s="3">
@@ -49422,7 +49441,7 @@
       <c r="C382" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E382" s="3">
@@ -49445,7 +49464,7 @@
       <c r="C383" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E383" s="3">
@@ -49468,7 +49487,7 @@
       <c r="C384" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D384" s="2" t="s">
+      <c r="D384" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E384" s="3">
@@ -49491,7 +49510,7 @@
       <c r="C385" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="D385" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E385" s="3">
@@ -49514,7 +49533,7 @@
       <c r="C386" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D386" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E386" s="3">
@@ -49537,7 +49556,7 @@
       <c r="C387" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D387" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E387" s="3">
@@ -49560,7 +49579,7 @@
       <c r="C388" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D388" s="2" t="s">
+      <c r="D388" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E388" s="3">
@@ -49583,7 +49602,7 @@
       <c r="C389" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D389" s="2" t="s">
+      <c r="D389" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E389" s="3">
@@ -49606,7 +49625,7 @@
       <c r="C390" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D390" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E390" s="3">
@@ -49629,7 +49648,7 @@
       <c r="C391" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="D391" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E391" s="3">
@@ -49652,7 +49671,7 @@
       <c r="C392" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D392" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E392" s="3">
@@ -49675,7 +49694,7 @@
       <c r="C393" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D393" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E393" s="3">
@@ -49698,7 +49717,7 @@
       <c r="C394" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D394" s="2" t="s">
+      <c r="D394" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E394" s="3">
@@ -49721,7 +49740,7 @@
       <c r="C395" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D395" s="2" t="s">
+      <c r="D395" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E395" s="3">
@@ -49744,7 +49763,7 @@
       <c r="C396" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D396" s="2" t="s">
+      <c r="D396" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E396" s="3">
@@ -49767,7 +49786,7 @@
       <c r="C397" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D397" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E397" s="3">
@@ -49790,7 +49809,7 @@
       <c r="C398" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D398" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E398" s="3">
@@ -49813,7 +49832,7 @@
       <c r="C399" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D399" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E399" s="3">
@@ -49836,7 +49855,7 @@
       <c r="C400" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D400" s="2" t="s">
+      <c r="D400" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E400" s="3">
@@ -49859,7 +49878,7 @@
       <c r="C401" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D401" s="2" t="s">
+      <c r="D401" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E401" s="3">
@@ -49882,7 +49901,7 @@
       <c r="C402" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D402" s="2" t="s">
+      <c r="D402" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E402" s="3">
@@ -49905,7 +49924,7 @@
       <c r="C403" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D403" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E403" s="3">
@@ -49928,7 +49947,7 @@
       <c r="C404" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D404" s="2" t="s">
+      <c r="D404" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E404" s="3">
@@ -49951,7 +49970,7 @@
       <c r="C405" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D405" s="2" t="s">
+      <c r="D405" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E405" s="3">
@@ -49974,7 +49993,7 @@
       <c r="C406" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D406" s="2" t="s">
+      <c r="D406" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E406" s="3">
@@ -49997,7 +50016,7 @@
       <c r="C407" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D407" s="2" t="s">
+      <c r="D407" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E407" s="3">
@@ -50020,7 +50039,7 @@
       <c r="C408" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D408" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E408" s="3">
@@ -50043,7 +50062,7 @@
       <c r="C409" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="D409" s="6" t="s">
         <v>1424</v>
       </c>
       <c r="E409" s="3">
@@ -50066,7 +50085,7 @@
       <c r="C410" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D410" s="2" t="s">
+      <c r="D410" s="6" t="s">
         <v>1426</v>
       </c>
       <c r="E410" s="3">
@@ -50089,7 +50108,7 @@
       <c r="C411" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D411" s="2" t="s">
+      <c r="D411" s="6" t="s">
         <v>1429</v>
       </c>
       <c r="E411" s="3">
@@ -50112,7 +50131,7 @@
       <c r="C412" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" s="6" t="s">
         <v>1432</v>
       </c>
       <c r="E412" s="3">
@@ -50135,7 +50154,7 @@
       <c r="C413" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D413" s="2" t="s">
+      <c r="D413" s="6" t="s">
         <v>1434</v>
       </c>
       <c r="E413" s="3">
@@ -50158,7 +50177,7 @@
       <c r="C414" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D414" s="2" t="s">
+      <c r="D414" s="6" t="s">
         <v>1434</v>
       </c>
       <c r="E414" s="3">
@@ -50181,7 +50200,7 @@
       <c r="C415" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D415" s="6" t="s">
         <v>1434</v>
       </c>
       <c r="E415" s="3">
@@ -50204,7 +50223,7 @@
       <c r="C416" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D416" s="2" t="s">
+      <c r="D416" s="6" t="s">
         <v>1438</v>
       </c>
       <c r="E416" s="3">
@@ -50227,7 +50246,7 @@
       <c r="C417" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D417" s="2" t="s">
+      <c r="D417" s="6" t="s">
         <v>1440</v>
       </c>
       <c r="E417" s="3">
@@ -50250,13 +50269,13 @@
       <c r="C418" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D418" s="2" t="s">
+      <c r="D418" s="6" t="s">
         <v>1443</v>
       </c>
       <c r="E418" s="3">
         <v>18838736</v>
       </c>
-      <c r="F418" s="6" t="s">
+      <c r="F418" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G418" s="2" t="s">
@@ -50273,13 +50292,13 @@
       <c r="C419" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D419" s="2" t="s">
+      <c r="D419" s="6" t="s">
         <v>1446</v>
       </c>
       <c r="E419" s="3">
         <v>19398239</v>
       </c>
-      <c r="F419" s="6" t="s">
+      <c r="F419" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G419" s="2" t="s">
@@ -50296,13 +50315,13 @@
       <c r="C420" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D420" s="2" t="s">
+      <c r="D420" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E420" s="3">
         <v>28093797</v>
       </c>
-      <c r="F420" s="6" t="s">
+      <c r="F420" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G420" s="2" t="s">
@@ -50319,13 +50338,13 @@
       <c r="C421" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D421" s="2" t="s">
+      <c r="D421" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E421" s="3">
         <v>28093797</v>
       </c>
-      <c r="F421" s="6" t="s">
+      <c r="F421" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G421" s="2" t="s">
@@ -50342,13 +50361,13 @@
       <c r="C422" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D422" s="2" t="s">
+      <c r="D422" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E422" s="3">
         <v>28093797</v>
       </c>
-      <c r="F422" s="6" t="s">
+      <c r="F422" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G422" s="2" t="s">
@@ -50365,13 +50384,13 @@
       <c r="C423" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D423" s="2" t="s">
+      <c r="D423" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E423" s="3">
         <v>28093797</v>
       </c>
-      <c r="F423" s="6" t="s">
+      <c r="F423" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G423" s="2" t="s">
@@ -50388,13 +50407,13 @@
       <c r="C424" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D424" s="2" t="s">
+      <c r="D424" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E424" s="3">
         <v>28093797</v>
       </c>
-      <c r="F424" s="6" t="s">
+      <c r="F424" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G424" s="2" t="s">
@@ -50411,13 +50430,13 @@
       <c r="C425" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D425" s="2" t="s">
+      <c r="D425" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E425" s="3">
         <v>28093797</v>
       </c>
-      <c r="F425" s="6" t="s">
+      <c r="F425" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G425" s="2" t="s">
@@ -50434,13 +50453,13 @@
       <c r="C426" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D426" s="2" t="s">
+      <c r="D426" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E426" s="3">
         <v>28093797</v>
       </c>
-      <c r="F426" s="6" t="s">
+      <c r="F426" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G426" s="2" t="s">
@@ -50457,13 +50476,13 @@
       <c r="C427" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D427" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E427" s="3">
         <v>28093797</v>
       </c>
-      <c r="F427" s="6" t="s">
+      <c r="F427" s="8" t="s">
         <v>1444</v>
       </c>
       <c r="G427" s="2" t="s">
@@ -50480,13 +50499,13 @@
       <c r="C428" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D428" s="2" t="s">
+      <c r="D428" s="6" t="s">
         <v>1458</v>
       </c>
       <c r="E428" s="3">
         <v>15464254</v>
       </c>
-      <c r="F428" s="6" t="s">
+      <c r="F428" s="8" t="s">
         <v>1459</v>
       </c>
       <c r="G428" s="2" t="s">
@@ -50503,13 +50522,13 @@
       <c r="C429" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D429" s="2" t="s">
+      <c r="D429" s="6" t="s">
         <v>1461</v>
       </c>
       <c r="E429" s="3">
         <v>17621752</v>
       </c>
-      <c r="F429" s="6" t="s">
+      <c r="F429" s="8" t="s">
         <v>1459</v>
       </c>
       <c r="G429" s="2" t="s">
@@ -50526,7 +50545,7 @@
       <c r="C430" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D430" s="2" t="s">
+      <c r="D430" s="6" t="s">
         <v>1464</v>
       </c>
       <c r="E430" s="3">
@@ -50549,13 +50568,13 @@
       <c r="C431" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D431" s="2" t="s">
+      <c r="D431" s="6" t="s">
         <v>1468</v>
       </c>
       <c r="E431" s="3">
         <v>20573093</v>
       </c>
-      <c r="F431" s="6" t="s">
+      <c r="F431" s="8" t="s">
         <v>1469</v>
       </c>
       <c r="G431" s="2" t="s">
@@ -50572,13 +50591,13 @@
       <c r="C432" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D432" s="2" t="s">
+      <c r="D432" s="6" t="s">
         <v>1471</v>
       </c>
       <c r="E432" s="3">
         <v>9230022</v>
       </c>
-      <c r="F432" s="6" t="s">
+      <c r="F432" s="8" t="s">
         <v>1469</v>
       </c>
       <c r="G432" s="2" t="s">
@@ -50595,7 +50614,7 @@
       <c r="C433" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D433" s="6" t="s">
         <v>1474</v>
       </c>
       <c r="E433" s="3">
@@ -50618,7 +50637,7 @@
       <c r="C434" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D434" s="2" t="s">
+      <c r="D434" s="6" t="s">
         <v>1477</v>
       </c>
       <c r="E434" s="3">
@@ -50641,7 +50660,7 @@
       <c r="C435" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D435" s="2" t="s">
+      <c r="D435" s="6" t="s">
         <v>1479</v>
       </c>
       <c r="E435" s="3">
@@ -50664,7 +50683,7 @@
       <c r="C436" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D436" s="2" t="s">
+      <c r="D436" s="6" t="s">
         <v>1481</v>
       </c>
       <c r="E436" s="3">
@@ -50687,7 +50706,7 @@
       <c r="C437" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D437" s="2" t="s">
+      <c r="D437" s="6" t="s">
         <v>1483</v>
       </c>
       <c r="E437" s="3">
@@ -50710,7 +50729,7 @@
       <c r="C438" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D438" s="2" t="s">
+      <c r="D438" s="6" t="s">
         <v>1486</v>
       </c>
       <c r="E438" s="3">
@@ -50733,7 +50752,7 @@
       <c r="C439" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D439" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E439" s="3">
@@ -50756,7 +50775,7 @@
       <c r="C440" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D440" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E440" s="3">
@@ -50779,7 +50798,7 @@
       <c r="C441" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D441" s="2" t="s">
+      <c r="D441" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E441" s="3">
@@ -50802,7 +50821,7 @@
       <c r="C442" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="D442" s="6" t="s">
         <v>1492</v>
       </c>
       <c r="E442" s="3">
@@ -50825,7 +50844,7 @@
       <c r="C443" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="D443" s="6" t="s">
         <v>1492</v>
       </c>
       <c r="E443" s="3">
@@ -50848,7 +50867,7 @@
       <c r="C444" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D444" s="2" t="s">
+      <c r="D444" s="6" t="s">
         <v>1495</v>
       </c>
       <c r="E444" s="3">
@@ -50871,7 +50890,7 @@
       <c r="C445" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D445" s="2" t="s">
+      <c r="D445" s="6" t="s">
         <v>1497</v>
       </c>
       <c r="E445" s="3">
@@ -50894,7 +50913,7 @@
       <c r="C446" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="D446" s="6" t="s">
         <v>1499</v>
       </c>
       <c r="E446" s="3">
@@ -50917,7 +50936,7 @@
       <c r="C447" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D447" s="2" t="s">
+      <c r="D447" s="6" t="s">
         <v>1501</v>
       </c>
       <c r="E447" s="3">
@@ -50940,7 +50959,7 @@
       <c r="C448" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="D448" s="6" t="s">
         <v>1503</v>
       </c>
       <c r="E448" s="3">
@@ -50963,7 +50982,7 @@
       <c r="C449" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D449" s="2" t="s">
+      <c r="D449" s="6" t="s">
         <v>1506</v>
       </c>
       <c r="E449" s="3">
@@ -50986,7 +51005,7 @@
       <c r="C450" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D450" s="2" t="s">
+      <c r="D450" s="6" t="s">
         <v>1510</v>
       </c>
       <c r="E450" s="3">
@@ -51009,7 +51028,7 @@
       <c r="C451" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D451" s="2" t="s">
+      <c r="D451" s="6" t="s">
         <v>1513</v>
       </c>
       <c r="E451" s="3">
@@ -51032,13 +51051,13 @@
       <c r="C452" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="D452" s="6" t="s">
         <v>1516</v>
       </c>
       <c r="E452" s="3">
         <v>15128366</v>
       </c>
-      <c r="F452" s="6" t="s">
+      <c r="F452" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G452" s="2" t="s">
@@ -51055,13 +51074,13 @@
       <c r="C453" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D453" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E453" s="3">
         <v>15582145</v>
       </c>
-      <c r="F453" s="6" t="s">
+      <c r="F453" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G453" s="2" t="s">
@@ -51078,13 +51097,13 @@
       <c r="C454" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D454" s="2" t="s">
+      <c r="D454" s="6" t="s">
         <v>969</v>
       </c>
       <c r="E454" s="3">
         <v>15582145</v>
       </c>
-      <c r="F454" s="6" t="s">
+      <c r="F454" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G454" s="2" t="s">
@@ -51101,13 +51120,13 @@
       <c r="C455" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D455" s="2" t="s">
+      <c r="D455" s="6" t="s">
         <v>1521</v>
       </c>
       <c r="E455" s="3">
         <v>15955234</v>
       </c>
-      <c r="F455" s="6" t="s">
+      <c r="F455" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G455" s="2" t="s">
@@ -51124,13 +51143,13 @@
       <c r="C456" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D456" s="2" t="s">
+      <c r="D456" s="6" t="s">
         <v>1521</v>
       </c>
       <c r="E456" s="3">
         <v>15955234</v>
       </c>
-      <c r="F456" s="6" t="s">
+      <c r="F456" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G456" s="2" t="s">
@@ -51147,13 +51166,13 @@
       <c r="C457" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D457" s="2" t="s">
+      <c r="D457" s="6" t="s">
         <v>1524</v>
       </c>
       <c r="E457" s="3">
         <v>16610575</v>
       </c>
-      <c r="F457" s="6" t="s">
+      <c r="F457" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G457" s="2" t="s">
@@ -51170,13 +51189,13 @@
       <c r="C458" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D458" s="2" t="s">
+      <c r="D458" s="6" t="s">
         <v>1524</v>
       </c>
       <c r="E458" s="3">
         <v>16610575</v>
       </c>
-      <c r="F458" s="6" t="s">
+      <c r="F458" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="G458" s="2" t="s">
@@ -51193,7 +51212,7 @@
       <c r="C459" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D459" s="2" t="s">
+      <c r="D459" s="6" t="s">
         <v>1528</v>
       </c>
       <c r="E459" s="3">
@@ -51216,7 +51235,7 @@
       <c r="C460" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D460" s="2" t="s">
+      <c r="D460" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E460" s="3">
@@ -51239,7 +51258,7 @@
       <c r="C461" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D461" s="2" t="s">
+      <c r="D461" s="6" t="s">
         <v>802</v>
       </c>
       <c r="E461" s="3">
@@ -51262,7 +51281,7 @@
       <c r="C462" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D462" s="2" t="s">
+      <c r="D462" s="6" t="s">
         <v>1533</v>
       </c>
       <c r="E462" s="3">
@@ -51285,7 +51304,7 @@
       <c r="C463" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D463" s="2" t="s">
+      <c r="D463" s="6" t="s">
         <v>1535</v>
       </c>
       <c r="E463" s="3">
@@ -51308,7 +51327,7 @@
       <c r="C464" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D464" s="2" t="s">
+      <c r="D464" s="6" t="s">
         <v>1497</v>
       </c>
       <c r="E464" s="3">
@@ -51331,7 +51350,7 @@
       <c r="C465" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D465" s="2" t="s">
+      <c r="D465" s="6" t="s">
         <v>1538</v>
       </c>
       <c r="E465" s="3">
@@ -51354,7 +51373,7 @@
       <c r="C466" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D466" s="2" t="s">
+      <c r="D466" s="6" t="s">
         <v>1503</v>
       </c>
       <c r="E466" s="3">
@@ -51377,7 +51396,7 @@
       <c r="C467" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D467" s="6" t="s">
         <v>1542</v>
       </c>
       <c r="E467" s="3">
@@ -51400,7 +51419,7 @@
       <c r="C468" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D468" s="2" t="s">
+      <c r="D468" s="6" t="s">
         <v>1545</v>
       </c>
       <c r="E468" s="3">
@@ -51423,7 +51442,7 @@
       <c r="C469" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="D469" s="6" t="s">
         <v>1547</v>
       </c>
       <c r="E469" s="3">
@@ -51446,7 +51465,7 @@
       <c r="C470" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D470" s="2" t="s">
+      <c r="D470" s="6" t="s">
         <v>1549</v>
       </c>
       <c r="E470" s="3">
@@ -51469,7 +51488,7 @@
       <c r="C471" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D471" s="2" t="s">
+      <c r="D471" s="6" t="s">
         <v>1551</v>
       </c>
       <c r="E471" s="3">
@@ -51492,7 +51511,7 @@
       <c r="C472" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="D472" s="6" t="s">
         <v>1553</v>
       </c>
       <c r="E472" s="3">
@@ -51515,7 +51534,7 @@
       <c r="C473" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="D473" s="6" t="s">
         <v>1555</v>
       </c>
       <c r="E473" s="3">
@@ -51538,7 +51557,7 @@
       <c r="C474" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D474" s="2" t="s">
+      <c r="D474" s="6" t="s">
         <v>1557</v>
       </c>
       <c r="E474" s="3">
@@ -51561,7 +51580,7 @@
       <c r="C475" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D475" s="2" t="s">
+      <c r="D475" s="6" t="s">
         <v>1559</v>
       </c>
       <c r="E475" s="3">
@@ -51584,7 +51603,7 @@
       <c r="C476" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D476" s="2" t="s">
+      <c r="D476" s="6" t="s">
         <v>1561</v>
       </c>
       <c r="E476" s="3">
@@ -51607,7 +51626,7 @@
       <c r="C477" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D477" s="6" t="s">
         <v>1563</v>
       </c>
       <c r="E477" s="3">
@@ -51630,7 +51649,7 @@
       <c r="C478" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D478" s="2" t="s">
+      <c r="D478" s="6" t="s">
         <v>1563</v>
       </c>
       <c r="E478" s="3">
@@ -51653,7 +51672,7 @@
       <c r="C479" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D479" s="2" t="s">
+      <c r="D479" s="6" t="s">
         <v>1566</v>
       </c>
       <c r="E479" s="3">
@@ -51676,7 +51695,7 @@
       <c r="C480" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D480" s="2" t="s">
+      <c r="D480" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="E480" s="3">
@@ -51699,7 +51718,7 @@
       <c r="C481" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D481" s="2" t="s">
+      <c r="D481" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="E481" s="3">
@@ -51722,7 +51741,7 @@
       <c r="C482" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="D482" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="E482" s="3">
@@ -51745,7 +51764,7 @@
       <c r="C483" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D483" s="2" t="s">
+      <c r="D483" s="6" t="s">
         <v>1573</v>
       </c>
       <c r="E483" s="3">
@@ -51768,7 +51787,7 @@
       <c r="C484" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D484" s="2" t="s">
+      <c r="D484" s="6" t="s">
         <v>1575</v>
       </c>
       <c r="E484" s="3">
@@ -51791,7 +51810,7 @@
       <c r="C485" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D485" s="2" t="s">
+      <c r="D485" s="6" t="s">
         <v>1577</v>
       </c>
       <c r="E485" s="3">
@@ -51814,7 +51833,7 @@
       <c r="C486" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="D486" s="6" t="s">
         <v>1579</v>
       </c>
       <c r="E486" s="3">
@@ -51837,7 +51856,7 @@
       <c r="C487" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="D487" s="6" t="s">
         <v>1582</v>
       </c>
       <c r="E487" s="3">
@@ -51860,7 +51879,7 @@
       <c r="C488" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D488" s="2" t="s">
+      <c r="D488" s="6" t="s">
         <v>1585</v>
       </c>
       <c r="E488" s="3">
@@ -51883,7 +51902,7 @@
       <c r="C489" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D489" s="2" t="s">
+      <c r="D489" s="6" t="s">
         <v>1587</v>
       </c>
       <c r="E489" s="3">
@@ -51906,7 +51925,7 @@
       <c r="C490" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D490" s="2" t="s">
+      <c r="D490" s="6" t="s">
         <v>1589</v>
       </c>
       <c r="E490" s="3">
@@ -51929,7 +51948,7 @@
       <c r="C491" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D491" s="2" t="s">
+      <c r="D491" s="6" t="s">
         <v>1591</v>
       </c>
       <c r="E491" s="3">
@@ -51952,7 +51971,7 @@
       <c r="C492" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D492" s="2" t="s">
+      <c r="D492" s="6" t="s">
         <v>1593</v>
       </c>
       <c r="E492" s="3">
@@ -51975,7 +51994,7 @@
       <c r="C493" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D493" s="2" t="s">
+      <c r="D493" s="6" t="s">
         <v>1595</v>
       </c>
       <c r="E493" s="3">
@@ -51998,7 +52017,7 @@
       <c r="C494" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D494" s="2" t="s">
+      <c r="D494" s="6" t="s">
         <v>1595</v>
       </c>
       <c r="E494" s="3">
@@ -52021,7 +52040,7 @@
       <c r="C495" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D495" s="2" t="s">
+      <c r="D495" s="6" t="s">
         <v>1595</v>
       </c>
       <c r="E495" s="3">
@@ -52044,7 +52063,7 @@
       <c r="C496" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D496" s="2" t="s">
+      <c r="D496" s="6" t="s">
         <v>1599</v>
       </c>
       <c r="E496" s="3">
@@ -52067,7 +52086,7 @@
       <c r="C497" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="D497" s="6" t="s">
         <v>1601</v>
       </c>
       <c r="E497" s="3">
@@ -52090,7 +52109,7 @@
       <c r="C498" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D498" s="2" t="s">
+      <c r="D498" s="6" t="s">
         <v>1603</v>
       </c>
       <c r="E498" s="3">
@@ -52113,7 +52132,7 @@
       <c r="C499" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D499" s="2" t="s">
+      <c r="D499" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="E499" s="3">
@@ -52136,7 +52155,7 @@
       <c r="C500" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D500" s="2" t="s">
+      <c r="D500" s="6" t="s">
         <v>1607</v>
       </c>
       <c r="E500" s="3">
@@ -52159,7 +52178,7 @@
       <c r="C501" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D501" s="2" t="s">
+      <c r="D501" s="6" t="s">
         <v>1609</v>
       </c>
       <c r="E501" s="3">
@@ -52182,7 +52201,7 @@
       <c r="C502" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D502" s="2" t="s">
+      <c r="D502" s="6" t="s">
         <v>1611</v>
       </c>
       <c r="E502" s="3">
@@ -52205,7 +52224,7 @@
       <c r="C503" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D503" s="2" t="s">
+      <c r="D503" s="6" t="s">
         <v>1613</v>
       </c>
       <c r="E503" s="3">
@@ -52228,7 +52247,7 @@
       <c r="C504" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D504" s="2" t="s">
+      <c r="D504" s="6" t="s">
         <v>1615</v>
       </c>
       <c r="E504" s="3">
@@ -52251,7 +52270,7 @@
       <c r="C505" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="D505" s="6" t="s">
         <v>1617</v>
       </c>
       <c r="E505" s="3">
@@ -52274,7 +52293,7 @@
       <c r="C506" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="D506" s="6" t="s">
         <v>1619</v>
       </c>
       <c r="E506" s="3">
@@ -52297,7 +52316,7 @@
       <c r="C507" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="D507" s="6" t="s">
         <v>1622</v>
       </c>
       <c r="E507" s="3">
@@ -52320,7 +52339,7 @@
       <c r="C508" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="D508" s="6" t="s">
         <v>1622</v>
       </c>
       <c r="E508" s="3">
@@ -52343,7 +52362,7 @@
       <c r="C509" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D509" s="7" t="s">
+      <c r="D509" s="9" t="s">
         <v>1627</v>
       </c>
       <c r="E509" s="3">
@@ -52366,7 +52385,7 @@
       <c r="C510" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D510" s="7" t="s">
+      <c r="D510" s="9" t="s">
         <v>1631</v>
       </c>
       <c r="E510" s="3">
@@ -52389,7 +52408,7 @@
       <c r="C511" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="D511" s="6" t="s">
         <v>1635</v>
       </c>
       <c r="E511" s="3">
@@ -52412,7 +52431,7 @@
       <c r="C512" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D512" s="7" t="s">
+      <c r="D512" s="9" t="s">
         <v>1638</v>
       </c>
       <c r="E512" s="3">
